--- a/results/4syllables_onethirdcontrols/trial_list.xlsx
+++ b/results/4syllables_onethirdcontrols/trial_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\bsliang_Coganlabcode\lexical_retro_delay_expdesign\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F3BA9C7-4176-4632-8775-AE9857F1FCC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{681310E0-0F4A-4C27-A909-34E325FDB9BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="32">
   <si>
     <t>Trial</t>
   </si>
@@ -55,46 +55,67 @@
     <t>Total_Trial_Length</t>
   </si>
   <si>
-    <t>jo</t>
+    <t>bu</t>
   </si>
   <si>
     <t>fa</t>
   </si>
   <si>
-    <t>REP_1ST</t>
+    <t>REP_BTH</t>
   </si>
   <si>
-    <t>bu</t>
+    <t>bu_fa</t>
+  </si>
+  <si>
+    <t>jo</t>
   </si>
   <si>
     <t>DRP_BTH</t>
   </si>
   <si>
+    <t>REP_1ST</t>
+  </si>
+  <si>
+    <t>mi</t>
+  </si>
+  <si>
     <t>REV_BTH</t>
   </si>
   <si>
-    <t>bu_fa</t>
+    <t>jo_mi</t>
   </si>
   <si>
-    <t>REP_BTH</t>
+    <t>jo_bu</t>
   </si>
   <si>
     <t>jo_fa</t>
   </si>
   <si>
-    <t>bu_jo</t>
+    <t>REP_2ND</t>
+  </si>
+  <si>
+    <t>mi_jo</t>
+  </si>
+  <si>
+    <t>mi_fa</t>
+  </si>
+  <si>
+    <t>bu_mi</t>
+  </si>
+  <si>
+    <t>fa_mi</t>
   </si>
   <si>
     <t>fa_bu</t>
   </si>
   <si>
-    <t>REP_2ND</t>
-  </si>
-  <si>
     <t>fa_jo</t>
   </si>
   <si>
-    <t>jo_bu</t>
+    <t>mi_bu</t>
+  </si>
+  <si>
+    <t>bu_jo</t>
   </si>
 </sst>
 </file>
@@ -467,8 +488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K217"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A208" workbookViewId="0">
-      <selection activeCell="N226" sqref="N226"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U22" sqref="U22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -510,7 +531,7 @@
     </row>
     <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
@@ -519,30 +540,30 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G2" s="2">
-        <v>2.0032336624758482</v>
+        <v>2.000232534848799</v>
       </c>
       <c r="H2" s="2">
-        <v>1.99895140047667</v>
+        <v>1.990391806758542</v>
       </c>
       <c r="J2" s="2">
-        <v>0.8701646677892334</v>
+        <v>0.87148365690786056</v>
       </c>
       <c r="K2" s="2">
-        <v>9.3223497307417507</v>
+        <v>9.3121079985152022</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
-        <v>67</v>
+        <v>142</v>
       </c>
       <c r="B3" s="2">
         <v>2</v>
@@ -551,30 +572,30 @@
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G3" s="2">
-        <v>1.997034813203691</v>
+        <v>1.9935319633669131</v>
       </c>
       <c r="H3" s="2">
-        <v>1.9927074564476051</v>
+        <v>2.0088682225085241</v>
       </c>
       <c r="J3" s="2">
-        <v>0.87093627042907873</v>
+        <v>0.86994893753466085</v>
       </c>
       <c r="K3" s="2">
-        <v>9.3106785400803744</v>
+        <v>9.3223491234100972</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
-        <v>98</v>
+        <v>146</v>
       </c>
       <c r="B4" s="2">
         <v>3</v>
@@ -583,126 +604,126 @@
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G4" s="2">
-        <v>1.9990323987430461</v>
+        <v>1.9905899674730709</v>
       </c>
       <c r="H4" s="2">
-        <v>2.005886290411143</v>
+        <v>1.994743899375238</v>
       </c>
       <c r="J4" s="2">
-        <v>0.86814145355285122</v>
+        <v>0.87154655091730193</v>
       </c>
       <c r="K4" s="2">
-        <v>9.3230601427070408</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
-        <v>134</v>
-      </c>
-      <c r="B5" s="2">
-        <v>4</v>
-      </c>
-      <c r="C5" s="2">
-        <v>1</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="2">
-        <v>2.003278565500096</v>
-      </c>
-      <c r="H5" s="2">
-        <v>1.994829313759712</v>
-      </c>
-      <c r="J5" s="2">
-        <v>0.87096219684329834</v>
-      </c>
-      <c r="K5" s="2">
-        <v>9.319070076103106</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
-        <v>149</v>
-      </c>
-      <c r="B6" s="2">
-        <v>5</v>
-      </c>
-      <c r="C6" s="2">
-        <v>1</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="2">
-        <v>2.0026780277424039</v>
-      </c>
-      <c r="H6" s="2">
-        <v>1.9993502616694969</v>
-      </c>
-      <c r="J6" s="2">
-        <v>0.87183559965395685</v>
-      </c>
-      <c r="K6" s="2">
-        <v>9.3238638890658585</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
-        <v>182</v>
-      </c>
-      <c r="B7" s="2">
-        <v>6</v>
-      </c>
-      <c r="C7" s="2">
-        <v>1</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="2">
-        <v>2.009084327839282</v>
-      </c>
-      <c r="H7" s="2">
-        <v>2.005341783577141</v>
-      </c>
-      <c r="J7" s="2">
-        <v>0.87133280739431174</v>
-      </c>
-      <c r="K7" s="2">
-        <v>9.3357589188107344</v>
+        <v>9.3068804177656101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>17</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5">
+        <v>1.9944088054572251</v>
+      </c>
+      <c r="H5">
+        <v>2.0045955186159632</v>
+      </c>
+      <c r="J5">
+        <v>0.87112694493445897</v>
+      </c>
+      <c r="K5">
+        <v>9.3201312690076463</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>127</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6">
+        <v>1.9993465410767881</v>
+      </c>
+      <c r="H6">
+        <v>1.99241381425983</v>
+      </c>
+      <c r="J6">
+        <v>0.86967255461175319</v>
+      </c>
+      <c r="K6">
+        <v>9.3114329099483708</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>189</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7">
+        <v>1.991885314414598</v>
+      </c>
+      <c r="H7">
+        <v>2.003696196171092</v>
+      </c>
+      <c r="J7">
+        <v>0.8689368649107031</v>
+      </c>
+      <c r="K7">
+        <v>9.3145183754963927</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -711,30 +732,30 @@
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G8">
-        <v>2.0030684384964772</v>
+        <v>1.99513144990984</v>
       </c>
       <c r="H8">
-        <v>1.9965960838896171</v>
+        <v>2.0074425081398481</v>
       </c>
       <c r="J8">
-        <v>0.87032023060263086</v>
+        <v>0.87098854730713615</v>
       </c>
       <c r="K8">
-        <v>9.3199847529887254</v>
+        <v>9.3235625053568256</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>43</v>
+        <v>109</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -743,30 +764,30 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G9">
-        <v>1.9964384489136751</v>
+        <v>1.991576118197339</v>
       </c>
       <c r="H9">
-        <v>1.9964640159242091</v>
+        <v>2.000603013615049</v>
       </c>
       <c r="J9">
-        <v>0.86820445627059173</v>
+        <v>0.8690235526775123</v>
       </c>
       <c r="K9">
-        <v>9.3111069211084754</v>
+        <v>9.311202684489901</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>88</v>
+        <v>201</v>
       </c>
       <c r="B10">
         <v>3</v>
@@ -775,126 +796,126 @@
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G10">
-        <v>1.996730839852644</v>
+        <v>1.997489643867687</v>
       </c>
       <c r="H10">
-        <v>1.9988599843008581</v>
+        <v>1.994632382156603</v>
       </c>
       <c r="J10">
-        <v>0.87024034029042141</v>
+        <v>0.87023861171819505</v>
       </c>
       <c r="K10">
-        <v>9.3158311644439227</v>
+        <v>9.3123606377424846</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>109</v>
+        <v>40</v>
       </c>
       <c r="B11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E11" t="s">
         <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G11">
-        <v>1.994058110836364</v>
+        <v>2.0041588848888621</v>
       </c>
       <c r="H11">
-        <v>1.992983615987387</v>
+        <v>1.990560315473219</v>
       </c>
       <c r="J11">
-        <v>0.87141301368492707</v>
+        <v>0.87032839524825401</v>
       </c>
       <c r="K11">
-        <v>9.3084547405086777</v>
+        <v>9.3150475956103342</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>158</v>
+        <v>88</v>
       </c>
       <c r="B12">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E12" t="s">
         <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G12">
-        <v>2.0065118646706201</v>
+        <v>2.0067037823560141</v>
       </c>
       <c r="H12">
-        <v>2.0026058648209801</v>
+        <v>1.995122550208384</v>
       </c>
       <c r="J12">
-        <v>0.87049043524001024</v>
+        <v>0.87032371284904775</v>
       </c>
       <c r="K12">
-        <v>9.3296081647316083</v>
+        <v>9.3221500454134461</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>202</v>
+        <v>154</v>
       </c>
       <c r="B13">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E13" t="s">
         <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G13">
-        <v>1.991210581415672</v>
+        <v>2.0001381808762888</v>
       </c>
       <c r="H13">
-        <v>2.0021398485277948</v>
+        <v>1.9961848709382239</v>
       </c>
       <c r="J13">
-        <v>0.86890762394113585</v>
+        <v>0.87144160302224261</v>
       </c>
       <c r="K13">
-        <v>9.3122580538846034</v>
+        <v>9.3177646548367559</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -906,27 +927,27 @@
         <v>12</v>
       </c>
       <c r="E14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G14">
-        <v>1.9969952023880371</v>
+        <v>1.99498480193836</v>
       </c>
       <c r="H14">
-        <v>2.0061145084499761</v>
+        <v>1.999866086103423</v>
       </c>
       <c r="J14">
-        <v>0.86856695048335752</v>
+        <v>0.86904849059189415</v>
       </c>
       <c r="K14">
-        <v>9.3216766613213711</v>
+        <v>9.3138993786336748</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -938,27 +959,27 @@
         <v>12</v>
       </c>
       <c r="E15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G15">
-        <v>2.0073891489762832</v>
+        <v>1.9909439316120789</v>
       </c>
       <c r="H15">
-        <v>2.0076844760571162</v>
+        <v>2.005256006774061</v>
       </c>
       <c r="J15">
-        <v>0.86885579205491326</v>
+        <v>0.87077783621985172</v>
       </c>
       <c r="K15">
-        <v>9.3339294170883136</v>
+        <v>9.3169777746059914</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>90</v>
+        <v>177</v>
       </c>
       <c r="B16">
         <v>3</v>
@@ -970,30 +991,30 @@
         <v>12</v>
       </c>
       <c r="E16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G16">
-        <v>1.995308539719969</v>
+        <v>1.994935170357935</v>
       </c>
       <c r="H16">
-        <v>2.0056640145986981</v>
+        <v>2.0052913863342821</v>
       </c>
       <c r="J16">
-        <v>0.87073398872497521</v>
+        <v>0.86987473584056085</v>
       </c>
       <c r="K16">
-        <v>9.3217065430436428</v>
+        <v>9.3201012925327777</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>136</v>
+        <v>49</v>
       </c>
       <c r="B17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -1002,30 +1023,30 @@
         <v>12</v>
       </c>
       <c r="E17" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G17">
-        <v>2.0005220264444898</v>
+        <v>2.007901435378419</v>
       </c>
       <c r="H17">
-        <v>1.9971101665129869</v>
+        <v>2.0017225937565222</v>
       </c>
       <c r="J17">
-        <v>0.87083172806700659</v>
+        <v>0.86938857684123716</v>
       </c>
       <c r="K17">
-        <v>9.3184639210244846</v>
+        <v>9.3290126059761764</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>170</v>
+        <v>77</v>
       </c>
       <c r="B18">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -1034,30 +1055,30 @@
         <v>12</v>
       </c>
       <c r="E18" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G18">
-        <v>1.9994553140637139</v>
+        <v>1.997062893919392</v>
       </c>
       <c r="H18">
-        <v>2.0013359412895819</v>
+        <v>2.006336703217217</v>
       </c>
       <c r="J18">
-        <v>0.87036841655253228</v>
+        <v>0.87033777315442984</v>
       </c>
       <c r="K18">
-        <v>9.3211596719058285</v>
+        <v>9.32373737029104</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>208</v>
+        <v>175</v>
       </c>
       <c r="B19">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -1066,27 +1087,27 @@
         <v>12</v>
       </c>
       <c r="E19" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G19">
-        <v>2.0020477660153269</v>
+        <v>2.00441738136431</v>
       </c>
       <c r="H19">
-        <v>1.9932527787122041</v>
+        <v>1.999921407891796</v>
       </c>
       <c r="J19">
-        <v>0.8682464697003176</v>
+        <v>0.86951192843021052</v>
       </c>
       <c r="K19">
-        <v>9.3135470144278472</v>
+        <v>9.3238507176863159</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -1095,30 +1116,30 @@
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E20" t="s">
         <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G20">
-        <v>2.0071562759078829</v>
+        <v>1.992737828783244</v>
       </c>
       <c r="H20">
-        <v>2.0099933214046208</v>
+        <v>2.004700993272289</v>
       </c>
       <c r="J20">
-        <v>0.87082383345421677</v>
+        <v>0.87029163534958187</v>
       </c>
       <c r="K20">
-        <v>9.3379734307667217</v>
+        <v>9.3177304574051156</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>63</v>
+        <v>135</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -1127,30 +1148,30 @@
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E21" t="s">
         <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G21">
-        <v>1.9923585433094571</v>
+        <v>1.9940461453995419</v>
       </c>
       <c r="H21">
-        <v>1.9994924959352229</v>
+        <v>1.9996030174507891</v>
       </c>
       <c r="J21">
-        <v>0.87084204750244565</v>
+        <v>0.8699555843898169</v>
       </c>
       <c r="K21">
-        <v>9.3126930867471263</v>
+        <v>9.3136047472401486</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>95</v>
+        <v>173</v>
       </c>
       <c r="B22">
         <v>3</v>
@@ -1159,126 +1180,126 @@
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E22" t="s">
         <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G22">
-        <v>1.9956815444482221</v>
+        <v>2.0070533149640362</v>
       </c>
       <c r="H22">
-        <v>2.0015544011024291</v>
+        <v>2.0043206519512631</v>
       </c>
       <c r="J22">
-        <v>0.86902621283848325</v>
+        <v>0.87103851483527639</v>
       </c>
       <c r="K22">
-        <v>9.316262158389133</v>
+        <v>9.3324124817505769</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>112</v>
+        <v>2</v>
       </c>
       <c r="B23">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G23">
-        <v>1.9909913750169479</v>
+        <v>2.0095396743447198</v>
       </c>
       <c r="H23">
-        <v>2.001948349430585</v>
+        <v>1.9993401528504211</v>
       </c>
       <c r="J23">
-        <v>0.87023393351584344</v>
+        <v>0.87114535030649787</v>
       </c>
       <c r="K23">
-        <v>9.313173657963377</v>
+        <v>9.3300251775016392</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>164</v>
+        <v>124</v>
       </c>
       <c r="B24">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G24">
-        <v>2.0071296945792052</v>
+        <v>1.9917705425145109</v>
       </c>
       <c r="H24">
-        <v>2.0027553315897988</v>
+        <v>1.9940084896814501</v>
       </c>
       <c r="J24">
-        <v>0.87173779287325481</v>
+        <v>0.86944148408575805</v>
       </c>
       <c r="K24">
-        <v>9.3316228190422592</v>
+        <v>9.3052205162817181</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="B25">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G25">
-        <v>1.9989600067525159</v>
+        <v>2.00469118236503</v>
       </c>
       <c r="H25">
-        <v>1.9940250310647261</v>
+        <v>2.007286055402417</v>
       </c>
       <c r="J25">
-        <v>0.87018832593568429</v>
+        <v>0.87128195705128875</v>
       </c>
       <c r="K25">
-        <v>9.3131733637529255</v>
+        <v>9.3332591948187353</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>2</v>
+        <v>59</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -1287,30 +1308,30 @@
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E26" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F26" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G26">
-        <v>1.9950131366807979</v>
+        <v>1.9970740063830179</v>
       </c>
       <c r="H26">
-        <v>2.001237075284326</v>
+        <v>2.0002174577435938</v>
       </c>
       <c r="J26">
-        <v>0.86924999164552075</v>
+        <v>0.87088980946598649</v>
       </c>
       <c r="K26">
-        <v>9.3155002036106449</v>
+        <v>9.3181812735925966</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>58</v>
+        <v>98</v>
       </c>
       <c r="B27">
         <v>2</v>
@@ -1319,30 +1340,30 @@
         <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E27" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F27" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G27">
-        <v>2.0090618014999779</v>
+        <v>2.002852719645634</v>
       </c>
       <c r="H27">
-        <v>1.9900125030585569</v>
+        <v>2.0014081493581859</v>
       </c>
       <c r="J27">
-        <v>0.86935220341138353</v>
+        <v>0.87193231282113559</v>
       </c>
       <c r="K27">
-        <v>9.3184265079699191</v>
+        <v>9.326193181824955</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="B28">
         <v>3</v>
@@ -1351,126 +1372,126 @@
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E28" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F28" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G28">
-        <v>2.0062246946852951</v>
+        <v>2.0072234858267919</v>
       </c>
       <c r="H28">
-        <v>2.003594405167521</v>
+        <v>1.9987459596222501</v>
       </c>
       <c r="J28">
-        <v>0.86968361612392497</v>
+        <v>0.86972111991805323</v>
       </c>
       <c r="K28">
-        <v>9.3295027159767407</v>
+        <v>9.3256905653670952</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>126</v>
+        <v>24</v>
       </c>
       <c r="B29">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E29" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G29">
-        <v>1.9942760929127961</v>
+        <v>1.990219567913498</v>
       </c>
       <c r="H29">
-        <v>1.9948170093783051</v>
+        <v>2.0017862479042319</v>
       </c>
       <c r="J29">
-        <v>0.87025204264992462</v>
+        <v>0.86819599073374598</v>
       </c>
       <c r="K29">
-        <v>9.3093451449410249</v>
+        <v>9.3102018065514756</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>154</v>
+        <v>94</v>
       </c>
       <c r="B30">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E30" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G30">
-        <v>1.9962086681413029</v>
+        <v>2.0089750547520322</v>
       </c>
       <c r="H30">
-        <v>2.0049017241779161</v>
+        <v>2.003333749535567</v>
       </c>
       <c r="J30">
-        <v>0.86865945690813917</v>
+        <v>0.86895386016773057</v>
       </c>
       <c r="K30">
-        <v>9.3197698492273577</v>
+        <v>9.3312626644553287</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B31">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C31">
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E31" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G31">
-        <v>2.00646884785604</v>
+        <v>1.994540008361618</v>
       </c>
       <c r="H31">
-        <v>1.992796801654358</v>
+        <v>1.994895191466088</v>
       </c>
       <c r="J31">
-        <v>0.86805942568117389</v>
+        <v>0.86835836851439208</v>
       </c>
       <c r="K31">
-        <v>9.3173250751915724</v>
+        <v>9.3077935683420989</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -1479,30 +1500,30 @@
         <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E32" t="s">
         <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G32">
-        <v>2.0042183824955799</v>
+        <v>2.0034151260113879</v>
       </c>
       <c r="H32">
-        <v>2.0082803165134031</v>
+        <v>2.0086837086042868</v>
       </c>
       <c r="J32">
-        <v>0.8717072084793368</v>
+        <v>0.87115958308481711</v>
       </c>
       <c r="K32">
-        <v>9.3342059074883199</v>
+        <v>9.3332584177004918</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>65</v>
+        <v>129</v>
       </c>
       <c r="B33">
         <v>2</v>
@@ -1511,30 +1532,30 @@
         <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E33" t="s">
         <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G33">
-        <v>2.0002055434573132</v>
+        <v>1.9971008773742971</v>
       </c>
       <c r="H33">
-        <v>1.9917116796000289</v>
+        <v>2.0098318189622351</v>
       </c>
       <c r="J33">
-        <v>0.87089158586274318</v>
+        <v>0.87173213358584511</v>
       </c>
       <c r="K33">
-        <v>9.3128088089200851</v>
+        <v>9.328664829922376</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>78</v>
+        <v>163</v>
       </c>
       <c r="B34">
         <v>3</v>
@@ -1543,126 +1564,126 @@
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E34" t="s">
         <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G34">
-        <v>2.0075041577941399</v>
+        <v>2.009492651711529</v>
       </c>
       <c r="H34">
-        <v>2.007207282852812</v>
+        <v>2.004753298062572</v>
       </c>
       <c r="J34">
-        <v>0.87112561428587487</v>
+        <v>0.87196872829552785</v>
       </c>
       <c r="K34">
-        <v>9.335837054932826</v>
+        <v>9.3362146780696289</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>141</v>
+        <v>32</v>
       </c>
       <c r="B35">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C35">
         <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E35" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F35" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G35">
-        <v>2.0077691171688352</v>
+        <v>1.9970333729515459</v>
       </c>
       <c r="H35">
-        <v>1.9957077403919461</v>
+        <v>2.0005243057410071</v>
       </c>
       <c r="J35">
-        <v>0.86854061585657161</v>
+        <v>0.86889398935711282</v>
       </c>
       <c r="K35">
-        <v>9.3220174734173522</v>
+        <v>9.3164516680496661</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>172</v>
+        <v>144</v>
       </c>
       <c r="B36">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C36">
         <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E36" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F36" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G36">
-        <v>1.9950301182432679</v>
+        <v>1.9958966459744281</v>
       </c>
       <c r="H36">
-        <v>2.0076013176015719</v>
+        <v>2.0003078301735262</v>
       </c>
       <c r="J36">
-        <v>0.86848221390246605</v>
+        <v>0.87158833926185841</v>
       </c>
       <c r="K36">
-        <v>9.3211136497473053</v>
+        <v>9.3177928154098115</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>214</v>
+        <v>181</v>
       </c>
       <c r="B37">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C37">
         <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E37" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F37" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G37">
-        <v>2.007377827608487</v>
+        <v>1.9990669830687999</v>
       </c>
       <c r="H37">
-        <v>1.9954175145847699</v>
+        <v>2.0040180774448402</v>
       </c>
       <c r="J37">
-        <v>0.86879441533963608</v>
+        <v>0.87098061730220078</v>
       </c>
       <c r="K37">
-        <v>9.3215897575328928</v>
+        <v>9.3240656778158417</v>
       </c>
     </row>
     <row r="38" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="B38" s="2">
         <v>1</v>
@@ -1671,33 +1692,33 @@
         <v>1</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G38" s="2">
-        <v>1.9949381356902209</v>
+        <v>1.9936735957613381</v>
       </c>
       <c r="H38" s="2">
-        <v>2.005851495303185</v>
+        <v>2.0039281659399442</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J38" s="2">
-        <v>0.87175129105932347</v>
+        <v>0.87145684500341236</v>
       </c>
       <c r="K38" s="2">
-        <v>9.3225409220527293</v>
+        <v>9.3190586067046937</v>
       </c>
     </row>
     <row r="39" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
-        <v>48</v>
+        <v>102</v>
       </c>
       <c r="B39" s="2">
         <v>2</v>
@@ -1706,33 +1727,33 @@
         <v>1</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G39" s="2">
-        <v>1.9908098493861801</v>
+        <v>1.9915694135213211</v>
       </c>
       <c r="H39" s="2">
-        <v>1.994257971034888</v>
+        <v>1.996849124289084</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J39" s="2">
-        <v>0.8714141349487935</v>
+        <v>0.87188265283682609</v>
       </c>
       <c r="K39" s="2">
-        <v>9.3064819553698612</v>
+        <v>9.3103011906472304</v>
       </c>
     </row>
     <row r="40" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
-        <v>87</v>
+        <v>160</v>
       </c>
       <c r="B40" s="2">
         <v>3</v>
@@ -1741,138 +1762,138 @@
         <v>1</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G40" s="2">
-        <v>2.0094172154723511</v>
+        <v>2.0013689785898339</v>
       </c>
       <c r="H40" s="2">
-        <v>1.9988765805457529</v>
+        <v>2.0054606130632928</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J40" s="2">
-        <v>0.87171716485740713</v>
+        <v>0.86958352259080496</v>
       </c>
       <c r="K40" s="2">
-        <v>9.3300109608755122</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="2">
-        <v>110</v>
-      </c>
-      <c r="B41" s="2">
-        <v>4</v>
-      </c>
-      <c r="C41" s="2">
-        <v>1</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G41" s="2">
-        <v>2.0032151084869421</v>
-      </c>
-      <c r="H41" s="2">
-        <v>1.9930167655641291</v>
-      </c>
-      <c r="I41" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J41" s="2">
-        <v>0.87011400124714744</v>
-      </c>
-      <c r="K41" s="2">
-        <v>9.3163458752982198</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="2">
-        <v>163</v>
-      </c>
-      <c r="B42" s="2">
+        <v>9.3264131142439322</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A41">
         <v>5</v>
       </c>
-      <c r="C42" s="2">
-        <v>1</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G42" s="2">
-        <v>1.997541728131091</v>
-      </c>
-      <c r="H42" s="2">
-        <v>1.998945344649097</v>
-      </c>
-      <c r="I42" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J42" s="2">
-        <v>0.86933443853917514</v>
-      </c>
-      <c r="K42" s="2">
-        <v>9.3158215113193634</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="2">
-        <v>187</v>
-      </c>
-      <c r="B43" s="2">
-        <v>6</v>
-      </c>
-      <c r="C43" s="2">
-        <v>1</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G43" s="2">
-        <v>2.0037483287227031</v>
-      </c>
-      <c r="H43" s="2">
-        <v>2.0024619000641062</v>
-      </c>
-      <c r="I43" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J43" s="2">
-        <v>0.87149850328569733</v>
-      </c>
-      <c r="K43" s="2">
-        <v>9.3277087320725052</v>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41" t="s">
+        <v>15</v>
+      </c>
+      <c r="F41" t="s">
+        <v>17</v>
+      </c>
+      <c r="G41">
+        <v>2.007058657271882</v>
+      </c>
+      <c r="H41">
+        <v>1.99008878805978</v>
+      </c>
+      <c r="I41" t="s">
+        <v>11</v>
+      </c>
+      <c r="J41">
+        <v>0.87086886126918461</v>
+      </c>
+      <c r="K41">
+        <v>9.3180163066008461</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>104</v>
+      </c>
+      <c r="B42">
+        <v>2</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42" t="s">
+        <v>15</v>
+      </c>
+      <c r="F42" t="s">
+        <v>17</v>
+      </c>
+      <c r="G42">
+        <v>1.9922974510883871</v>
+      </c>
+      <c r="H42">
+        <v>2.0015054507345922</v>
+      </c>
+      <c r="I42" t="s">
+        <v>11</v>
+      </c>
+      <c r="J42">
+        <v>0.8681999209288509</v>
+      </c>
+      <c r="K42">
+        <v>9.312002822751829</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>191</v>
+      </c>
+      <c r="B43">
+        <v>3</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43" t="s">
+        <v>15</v>
+      </c>
+      <c r="F43" t="s">
+        <v>17</v>
+      </c>
+      <c r="G43">
+        <v>1.999361351296469</v>
+      </c>
+      <c r="H43">
+        <v>2.008188206500281</v>
+      </c>
+      <c r="I43" t="s">
+        <v>11</v>
+      </c>
+      <c r="J43">
+        <v>0.87074073341350333</v>
+      </c>
+      <c r="K43">
+        <v>9.3282902912102532</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -1881,33 +1902,33 @@
         <v>1</v>
       </c>
       <c r="D44" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F44" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G44">
-        <v>2.0047345793382831</v>
+        <v>2.0050525858438659</v>
       </c>
       <c r="H44">
-        <v>2.0042613782775298</v>
+        <v>2.0016817369815172</v>
       </c>
       <c r="I44" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J44">
-        <v>0.87185090749168737</v>
+        <v>0.87159171450552886</v>
       </c>
       <c r="K44">
-        <v>9.3308468651074996</v>
+        <v>9.3283260373309123</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>41</v>
+        <v>84</v>
       </c>
       <c r="B45">
         <v>2</v>
@@ -1916,33 +1937,33 @@
         <v>1</v>
       </c>
       <c r="D45" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F45" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G45">
-        <v>1.9950951993684409</v>
+        <v>2.000511025488565</v>
       </c>
       <c r="H45">
-        <v>1.9945537146112811</v>
+        <v>1.9968069299117539</v>
       </c>
       <c r="I45" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J45">
-        <v>0.86947092101497081</v>
+        <v>0.8706124534297065</v>
       </c>
       <c r="K45">
-        <v>9.3091198349946929</v>
+        <v>9.3179304088300245</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>97</v>
+        <v>205</v>
       </c>
       <c r="B46">
         <v>3</v>
@@ -1951,138 +1972,138 @@
         <v>1</v>
       </c>
       <c r="D46" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F46" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G46">
-        <v>2.0069787649060369</v>
+        <v>1.996487412819361</v>
       </c>
       <c r="H46">
-        <v>1.990073916040787</v>
+        <v>2.0082434993835898</v>
       </c>
       <c r="I46" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J46">
-        <v>0.87110271028568198</v>
+        <v>0.86850029774803705</v>
       </c>
       <c r="K46">
-        <v>9.3181553912325068</v>
+        <v>9.323231209950988</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>118</v>
+        <v>61</v>
       </c>
       <c r="B47">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C47">
         <v>1</v>
       </c>
       <c r="D47" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E47" t="s">
         <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G47">
-        <v>1.9967729703333781</v>
+        <v>2.002691666675851</v>
       </c>
       <c r="H47">
-        <v>2.0006113872167801</v>
+        <v>1.9943438946377381</v>
       </c>
       <c r="I47" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J47">
-        <v>0.87118917980488952</v>
+        <v>0.87029496426069586</v>
       </c>
       <c r="K47">
-        <v>9.3185735373550482</v>
+        <v>9.3173305255742829</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>167</v>
+        <v>106</v>
       </c>
       <c r="B48">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C48">
         <v>1</v>
       </c>
       <c r="D48" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E48" t="s">
         <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G48">
-        <v>1.9977671879434009</v>
+        <v>2.006699661546298</v>
       </c>
       <c r="H48">
-        <v>2.0096678525488731</v>
+        <v>1.995956560685564</v>
       </c>
       <c r="I48" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J48">
-        <v>0.86903247415319396</v>
+        <v>0.86989991881148543</v>
       </c>
       <c r="K48">
-        <v>9.3264675146454685</v>
+        <v>9.3225561410433482</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B49">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C49">
         <v>1</v>
       </c>
       <c r="D49" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E49" t="s">
         <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G49">
-        <v>2.0075719361565429</v>
+        <v>1.9973479294391721</v>
       </c>
       <c r="H49">
-        <v>1.9960866147567859</v>
+        <v>1.998351659880323</v>
       </c>
       <c r="I49" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J49">
-        <v>0.86821384486120778</v>
+        <v>0.8696620513083092</v>
       </c>
       <c r="K49">
-        <v>9.3218723957745357</v>
+        <v>9.3153616406278026</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -2094,30 +2115,30 @@
         <v>12</v>
       </c>
       <c r="E50" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F50" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G50">
-        <v>2.00685356150364</v>
+        <v>1.9937162705109319</v>
       </c>
       <c r="H50">
-        <v>2.001935701038752</v>
+        <v>1.9915952909613079</v>
       </c>
       <c r="I50" t="s">
         <v>12</v>
       </c>
       <c r="J50">
-        <v>0.8710629548410862</v>
+        <v>0.87152455165616705</v>
       </c>
       <c r="K50">
-        <v>9.3298522173834773</v>
+        <v>9.3068361131284068</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>44</v>
+        <v>113</v>
       </c>
       <c r="B51">
         <v>2</v>
@@ -2129,30 +2150,30 @@
         <v>12</v>
       </c>
       <c r="E51" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F51" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G51">
-        <v>2.0082880264898511</v>
+        <v>1.993674591386009</v>
       </c>
       <c r="H51">
-        <v>1.995570909679846</v>
+        <v>1.9986772114893689</v>
       </c>
       <c r="I51" t="s">
         <v>12</v>
       </c>
       <c r="J51">
-        <v>0.86845817069224296</v>
+        <v>0.87185117154911584</v>
       </c>
       <c r="K51">
-        <v>9.3223171068619415</v>
+        <v>9.314202974424493</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>74</v>
+        <v>213</v>
       </c>
       <c r="B52">
         <v>3</v>
@@ -2164,33 +2185,33 @@
         <v>12</v>
       </c>
       <c r="E52" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F52" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G52">
-        <v>2.001574356914249</v>
+        <v>1.997582736629816</v>
       </c>
       <c r="H52">
-        <v>2.0013102301705592</v>
+        <v>2.0013699893483818</v>
       </c>
       <c r="I52" t="s">
         <v>12</v>
       </c>
       <c r="J52">
-        <v>0.86849277438607664</v>
+        <v>0.86885768917106976</v>
       </c>
       <c r="K52">
-        <v>9.3213773614708852</v>
+        <v>9.3178104151492676</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>130</v>
+        <v>71</v>
       </c>
       <c r="B53">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -2199,33 +2220,33 @@
         <v>12</v>
       </c>
       <c r="E53" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F53" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G53">
-        <v>1.9966262095466469</v>
+        <v>1.991530689360975</v>
       </c>
       <c r="H53">
-        <v>1.999583700274344</v>
+        <v>2.0055277004674839</v>
       </c>
       <c r="I53" t="s">
         <v>12</v>
       </c>
       <c r="J53">
-        <v>0.86879665604099621</v>
+        <v>0.87123723166287492</v>
       </c>
       <c r="K53">
-        <v>9.3150065658619869</v>
+        <v>9.3182956214913339</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="B54">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -2234,33 +2255,33 @@
         <v>12</v>
       </c>
       <c r="E54" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F54" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G54">
-        <v>2.0073549654621141</v>
+        <v>1.990504301891888</v>
       </c>
       <c r="H54">
-        <v>1.9922154475012051</v>
+        <v>1.991044709812567</v>
       </c>
       <c r="I54" t="s">
         <v>12</v>
       </c>
       <c r="J54">
-        <v>0.86892178927151631</v>
+        <v>0.87153879899616393</v>
       </c>
       <c r="K54">
-        <v>9.3184922022348342</v>
+        <v>9.3030878107006192</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>203</v>
+        <v>149</v>
       </c>
       <c r="B55">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -2269,30 +2290,30 @@
         <v>12</v>
       </c>
       <c r="E55" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F55" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G55">
-        <v>1.991440416058448</v>
+        <v>1.9960066955527811</v>
       </c>
       <c r="H55">
-        <v>2.005727662591529</v>
+        <v>1.991628028601125</v>
       </c>
       <c r="I55" t="s">
         <v>12</v>
       </c>
       <c r="J55">
-        <v>0.87011445861943226</v>
+        <v>0.869113019495109</v>
       </c>
       <c r="K55">
-        <v>9.3172825372694099</v>
+        <v>9.306747743649014</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -2301,33 +2322,33 @@
         <v>1</v>
       </c>
       <c r="D56" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E56" t="s">
         <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G56">
-        <v>1.9958891350220791</v>
+        <v>1.9927181065958279</v>
       </c>
       <c r="H56">
-        <v>1.9990296971491719</v>
+        <v>1.9960565197118889</v>
       </c>
       <c r="I56" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J56">
-        <v>0.86846691689440314</v>
+        <v>0.86914858917423321</v>
       </c>
       <c r="K56">
-        <v>9.3133857490656542</v>
+        <v>9.3079232154819511</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B57">
         <v>2</v>
@@ -2336,33 +2357,33 @@
         <v>1</v>
       </c>
       <c r="D57" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E57" t="s">
         <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G57">
-        <v>2.0038145102717571</v>
+        <v>1.9948327443646321</v>
       </c>
       <c r="H57">
-        <v>1.99682285611542</v>
+        <v>2.0076763579545158</v>
       </c>
       <c r="I57" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J57">
-        <v>0.87199826783399692</v>
+        <v>0.86995350051032616</v>
       </c>
       <c r="K57">
-        <v>9.3226356342211734</v>
+        <v>9.3224626028294733</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>103</v>
+        <v>167</v>
       </c>
       <c r="B58">
         <v>3</v>
@@ -2371,138 +2392,138 @@
         <v>1</v>
       </c>
       <c r="D58" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E58" t="s">
         <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G58">
-        <v>2.0009164571214182</v>
+        <v>2.0034264585025938</v>
       </c>
       <c r="H58">
-        <v>1.9907486394105021</v>
+        <v>2.006066752683648</v>
       </c>
       <c r="I58" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J58">
-        <v>0.86865454641427342</v>
+        <v>0.87160922423569265</v>
       </c>
       <c r="K58">
-        <v>9.3103196429461939</v>
+        <v>9.3311024354219345</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>137</v>
+        <v>13</v>
       </c>
       <c r="B59">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C59">
         <v>1</v>
       </c>
       <c r="D59" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G59">
-        <v>2.0068494325681532</v>
+        <v>2.0010927838637791</v>
       </c>
       <c r="H59">
-        <v>1.991154093950283</v>
+        <v>1.995010046469172</v>
       </c>
       <c r="I59" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J59">
-        <v>0.86965695636473417</v>
+        <v>0.87178349202317051</v>
       </c>
       <c r="K59">
-        <v>9.3176604828831699</v>
+        <v>9.3178863223561219</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>159</v>
+        <v>122</v>
       </c>
       <c r="B60">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C60">
         <v>1</v>
       </c>
       <c r="D60" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G60">
-        <v>1.993520793385495</v>
+        <v>1.996417889135325</v>
       </c>
       <c r="H60">
-        <v>2.0053133445688909</v>
+        <v>1.9963224288792021</v>
       </c>
       <c r="I60" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J60">
-        <v>0.86900600017621521</v>
+        <v>0.87066342421166087</v>
       </c>
       <c r="K60">
-        <v>9.3178401381306006</v>
+        <v>9.3134037422261891</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B61">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C61">
         <v>1</v>
       </c>
       <c r="D61" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G61">
-        <v>2.0094634037640411</v>
+        <v>2.0029210802437039</v>
       </c>
       <c r="H61">
-        <v>1.9906591109779621</v>
+        <v>2.0052798852364671</v>
       </c>
       <c r="I61" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J61">
-        <v>0.86929941643608422</v>
+        <v>0.86884160187997339</v>
       </c>
       <c r="K61">
-        <v>9.3194219311780877</v>
+        <v>9.3270425673601434</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B62">
         <v>1</v>
@@ -2511,33 +2532,33 @@
         <v>1</v>
       </c>
       <c r="D62" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E62" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F62" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G62">
-        <v>1.9918196697862309</v>
+        <v>1.993408423626011</v>
       </c>
       <c r="H62">
-        <v>1.997110249270921</v>
+        <v>1.997045285776921</v>
       </c>
       <c r="I62" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="J62">
-        <v>0.87086872536922655</v>
+        <v>0.87188263053704185</v>
       </c>
       <c r="K62">
-        <v>9.3097986444263778</v>
+        <v>9.3123363399399732</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>68</v>
+        <v>117</v>
       </c>
       <c r="B63">
         <v>2</v>
@@ -2546,33 +2567,33 @@
         <v>1</v>
       </c>
       <c r="D63" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E63" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F63" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G63">
-        <v>2.0057381165166541</v>
+        <v>2.005651076271902</v>
       </c>
       <c r="H63">
-        <v>1.9960394433176629</v>
+        <v>2.000522914746425</v>
       </c>
       <c r="I63" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="J63">
-        <v>0.86919890418338674</v>
+        <v>0.87050028588963946</v>
       </c>
       <c r="K63">
-        <v>9.3209764640177042</v>
+        <v>9.3266742769079656</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>83</v>
+        <v>179</v>
       </c>
       <c r="B64">
         <v>3</v>
@@ -2581,138 +2602,138 @@
         <v>1</v>
       </c>
       <c r="D64" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E64" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F64" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G64">
-        <v>2.0068138720421631</v>
+        <v>2.0015870572022791</v>
       </c>
       <c r="H64">
-        <v>1.9926929126646189</v>
+        <v>1.9900454625004571</v>
       </c>
       <c r="I64" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="J64">
-        <v>0.86923439442538819</v>
+        <v>0.87122742361839312</v>
       </c>
       <c r="K64">
-        <v>9.3187411791321715</v>
+        <v>9.3128599433211292</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>128</v>
+        <v>54</v>
       </c>
       <c r="B65">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C65">
         <v>1</v>
       </c>
       <c r="D65" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E65" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G65">
-        <v>2.009855112355234</v>
+        <v>2.0097922814561811</v>
       </c>
       <c r="H65">
-        <v>2.000512944220731</v>
+        <v>1.996634501285842</v>
       </c>
       <c r="I65" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="J65">
-        <v>0.86866517173116742</v>
+        <v>0.86815834108124834</v>
       </c>
       <c r="K65">
-        <v>9.329033228307134</v>
+        <v>9.3245851238232706</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="B66">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C66">
         <v>1</v>
       </c>
       <c r="D66" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E66" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G66">
-        <v>2.0013046504991578</v>
+        <v>2.0084562788827909</v>
       </c>
       <c r="H66">
-        <v>2.0035435628562559</v>
+        <v>1.9983558651967881</v>
       </c>
       <c r="I66" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="J66">
-        <v>0.87115889635311317</v>
+        <v>0.87019610027939653</v>
       </c>
       <c r="K66">
-        <v>9.3260071097085291</v>
+        <v>9.327008244358975</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B67">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C67">
         <v>1</v>
       </c>
       <c r="D67" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E67" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G67">
-        <v>1.992406020713952</v>
+        <v>2.0020716934272711</v>
       </c>
       <c r="H67">
-        <v>1.994650535304344</v>
+        <v>1.993871263628312</v>
       </c>
       <c r="I67" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="J67">
-        <v>0.870530080670329</v>
+        <v>0.86969972527413952</v>
       </c>
       <c r="K67">
-        <v>9.307586636688626</v>
+        <v>9.3156426823297238</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>1</v>
+        <v>66</v>
       </c>
       <c r="B68">
         <v>1</v>
@@ -2721,33 +2742,33 @@
         <v>1</v>
       </c>
       <c r="D68" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E68" t="s">
         <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G68">
-        <v>1.9990123640268409</v>
+        <v>2.0060855212005988</v>
       </c>
       <c r="H68">
-        <v>2.0049325464709038</v>
+        <v>2.0007147740260671</v>
       </c>
       <c r="I68" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="J68">
-        <v>0.86980945958934885</v>
+        <v>0.86926352239957672</v>
       </c>
       <c r="K68">
-        <v>9.3237543700870944</v>
+        <v>9.3260638176262418</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="B69">
         <v>2</v>
@@ -2756,33 +2777,33 @@
         <v>1</v>
       </c>
       <c r="D69" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E69" t="s">
         <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G69">
-        <v>2.0032265344140798</v>
+        <v>2.0089789542095362</v>
       </c>
       <c r="H69">
-        <v>2.003959144387264</v>
+        <v>1.993486602589152</v>
       </c>
       <c r="I69" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="J69">
-        <v>0.87070531541011753</v>
+        <v>0.87110230667695676</v>
       </c>
       <c r="K69">
-        <v>9.3278909942114598</v>
+        <v>9.3235678634756454</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>91</v>
+        <v>188</v>
       </c>
       <c r="B70">
         <v>3</v>
@@ -2791,138 +2812,138 @@
         <v>1</v>
       </c>
       <c r="D70" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E70" t="s">
         <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G70">
-        <v>2.0001170210655301</v>
+        <v>1.9930888905772199</v>
       </c>
       <c r="H70">
-        <v>2.0026144867447488</v>
+        <v>2.005435346702988</v>
       </c>
       <c r="I70" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="J70">
-        <v>0.8706234289985012</v>
+        <v>0.87003253001113678</v>
       </c>
       <c r="K70">
-        <v>9.32335493680878</v>
+        <v>9.3185567672913461</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="B71">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C71">
         <v>1</v>
       </c>
       <c r="D71" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E71" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F71" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G71">
-        <v>1.9951439069525501</v>
+        <v>1.9928625145765151</v>
       </c>
       <c r="H71">
-        <v>2.0080554904677022</v>
+        <v>1.9956874799150519</v>
       </c>
       <c r="I71" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="J71">
-        <v>0.87163818194013287</v>
+        <v>0.87021986509441063</v>
       </c>
       <c r="K71">
-        <v>9.3248375793603859</v>
+        <v>9.3087698595859774</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>178</v>
+        <v>108</v>
       </c>
       <c r="B72">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C72">
         <v>1</v>
       </c>
       <c r="D72" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E72" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F72" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G72">
-        <v>2.000959573422382</v>
+        <v>2.0035996339959818</v>
       </c>
       <c r="H72">
-        <v>1.9930072814453299</v>
+        <v>1.994765994532405</v>
       </c>
       <c r="I72" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="J72">
-        <v>0.87137099454873879</v>
+        <v>0.86930313674234549</v>
       </c>
       <c r="K72">
-        <v>9.3153378494164514</v>
+        <v>9.3176687652707333</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B73">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C73">
         <v>1</v>
       </c>
       <c r="D73" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E73" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F73" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G73">
-        <v>2.0085127785990422</v>
+        <v>1.9997140842306389</v>
       </c>
       <c r="H73">
-        <v>1.998147609683969</v>
+        <v>1.9908025367262969</v>
       </c>
       <c r="I73" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="J73">
-        <v>0.87042669429777753</v>
+        <v>0.8692678920348561</v>
       </c>
       <c r="K73">
-        <v>9.3270870825807872</v>
+        <v>9.30978451299179</v>
       </c>
     </row>
     <row r="74" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="B74" s="2">
         <v>1</v>
@@ -2931,33 +2952,33 @@
         <v>1</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G74" s="2">
-        <v>2.0027996815217479</v>
+        <v>1.99138902886639</v>
       </c>
       <c r="H74" s="2">
-        <v>1.9989652767466799</v>
+        <v>2.000515154424519</v>
       </c>
       <c r="I74" s="2" t="s">
         <v>12</v>
       </c>
       <c r="J74" s="2">
-        <v>0.87008359264029189</v>
+        <v>0.86825062817600218</v>
       </c>
       <c r="K74" s="2">
-        <v>9.3218485509087206</v>
+        <v>9.3101548114669104</v>
       </c>
     </row>
     <row r="75" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="B75" s="2">
         <v>2</v>
@@ -2966,33 +2987,33 @@
         <v>1</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G75" s="2">
-        <v>1.9941569455831261</v>
+        <v>2.00566511541555</v>
       </c>
       <c r="H75" s="2">
-        <v>1.9946677250930669</v>
+        <v>2.0022265340583489</v>
       </c>
       <c r="I75" s="2" t="s">
         <v>12</v>
       </c>
       <c r="J75" s="2">
-        <v>0.86969225124821659</v>
+        <v>0.86983594094226624</v>
       </c>
       <c r="K75" s="2">
-        <v>9.3085169219244079</v>
+        <v>9.3277275904161652</v>
       </c>
     </row>
     <row r="76" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
-        <v>94</v>
+        <v>200</v>
       </c>
       <c r="B76" s="2">
         <v>3</v>
@@ -3001,138 +3022,138 @@
         <v>1</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G76" s="2">
-        <v>1.991454478030205</v>
+        <v>2.0089731584763699</v>
       </c>
       <c r="H76" s="2">
-        <v>2.0040378922583781</v>
+        <v>2.0014132814317449</v>
       </c>
       <c r="I76" s="2" t="s">
         <v>12</v>
       </c>
       <c r="J76" s="2">
-        <v>0.87044826844714929</v>
+        <v>0.87071109859028895</v>
       </c>
       <c r="K76" s="2">
-        <v>9.3159406387357322</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="2">
-        <v>125</v>
-      </c>
-      <c r="B77" s="2">
-        <v>4</v>
-      </c>
-      <c r="C77" s="2">
-        <v>1</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G77" s="2">
-        <v>1.999328563468455</v>
-      </c>
-      <c r="H77" s="2">
-        <v>1.999516953161856</v>
-      </c>
-      <c r="I77" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J77" s="2">
-        <v>0.87090139420033408</v>
-      </c>
-      <c r="K77" s="2">
-        <v>9.319746910830645</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="2">
-        <v>151</v>
-      </c>
-      <c r="B78" s="2">
-        <v>5</v>
-      </c>
-      <c r="C78" s="2">
-        <v>1</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G78" s="2">
-        <v>2.001411746718694</v>
-      </c>
-      <c r="H78" s="2">
-        <v>1.9935423423864791</v>
-      </c>
-      <c r="I78" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J78" s="2">
-        <v>0.87176050682645201</v>
-      </c>
-      <c r="K78" s="2">
-        <v>9.3167145959316251</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="2">
-        <v>210</v>
-      </c>
-      <c r="B79" s="2">
-        <v>6</v>
-      </c>
-      <c r="C79" s="2">
-        <v>1</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G79" s="2">
-        <v>2.0088314150966329</v>
-      </c>
-      <c r="H79" s="2">
-        <v>1.998749494412972</v>
-      </c>
-      <c r="I79" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J79" s="2">
-        <v>0.86892314693149264</v>
-      </c>
-      <c r="K79" s="2">
-        <v>9.3265040564410988</v>
+        <v>9.3310975384984047</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>67</v>
+      </c>
+      <c r="B77">
+        <v>1</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+      <c r="D77" t="s">
+        <v>11</v>
+      </c>
+      <c r="E77" t="s">
+        <v>15</v>
+      </c>
+      <c r="F77" t="s">
+        <v>23</v>
+      </c>
+      <c r="G77">
+        <v>2.0093082187782958</v>
+      </c>
+      <c r="H77">
+        <v>1.99721549386946</v>
+      </c>
+      <c r="I77" t="s">
+        <v>15</v>
+      </c>
+      <c r="J77">
+        <v>0.86809968250205294</v>
+      </c>
+      <c r="K77">
+        <v>9.324623395149807</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>123</v>
+      </c>
+      <c r="B78">
+        <v>2</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+      <c r="D78" t="s">
+        <v>11</v>
+      </c>
+      <c r="E78" t="s">
+        <v>15</v>
+      </c>
+      <c r="F78" t="s">
+        <v>23</v>
+      </c>
+      <c r="G78">
+        <v>1.9910704003087261</v>
+      </c>
+      <c r="H78">
+        <v>1.991105114917211</v>
+      </c>
+      <c r="I78" t="s">
+        <v>15</v>
+      </c>
+      <c r="J78">
+        <v>0.87003765322527127</v>
+      </c>
+      <c r="K78">
+        <v>9.3022131684512086</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>169</v>
+      </c>
+      <c r="B79">
+        <v>3</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+      <c r="D79" t="s">
+        <v>11</v>
+      </c>
+      <c r="E79" t="s">
+        <v>15</v>
+      </c>
+      <c r="F79" t="s">
+        <v>23</v>
+      </c>
+      <c r="G79">
+        <v>2.0048788819024592</v>
+      </c>
+      <c r="H79">
+        <v>1.99814736772271</v>
+      </c>
+      <c r="I79" t="s">
+        <v>15</v>
+      </c>
+      <c r="J79">
+        <v>0.871879260974461</v>
+      </c>
+      <c r="K79">
+        <v>9.3249055105996295</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="B80">
         <v>1</v>
@@ -3141,33 +3162,33 @@
         <v>1</v>
       </c>
       <c r="D80" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F80" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G80">
-        <v>1.9992413742881039</v>
+        <v>2.00854151620609</v>
       </c>
       <c r="H80">
-        <v>2.0051821905685618</v>
+        <v>1.9900656975283331</v>
       </c>
       <c r="I80" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="J80">
-        <v>0.87157981339169111</v>
+        <v>0.87057087050231008</v>
       </c>
       <c r="K80">
-        <v>9.3260033782483553</v>
+        <v>9.3191780842367322</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>51</v>
+        <v>138</v>
       </c>
       <c r="B81">
         <v>2</v>
@@ -3176,33 +3197,33 @@
         <v>1</v>
       </c>
       <c r="D81" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F81" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G81">
-        <v>2.0044069355697411</v>
+        <v>2.0044522219824259</v>
       </c>
       <c r="H81">
-        <v>2.002871801715524</v>
+        <v>2.009078814096946</v>
       </c>
       <c r="I81" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="J81">
-        <v>0.87122842620240915</v>
+        <v>0.86899581338684484</v>
       </c>
       <c r="K81">
-        <v>9.3285071634876733</v>
+        <v>9.3325268494662161</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>102</v>
+        <v>156</v>
       </c>
       <c r="B82">
         <v>3</v>
@@ -3211,138 +3232,138 @@
         <v>1</v>
       </c>
       <c r="D82" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F82" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G82">
-        <v>1.9951142585498849</v>
+        <v>2.0078689376578809</v>
       </c>
       <c r="H82">
-        <v>2.0001013395828799</v>
+        <v>1.9920610149664451</v>
       </c>
       <c r="I82" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="J82">
-        <v>0.8710520497155243</v>
+        <v>0.87134979052968009</v>
       </c>
       <c r="K82">
-        <v>9.3162676478482904</v>
+        <v>9.3212797431540046</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>142</v>
+        <v>21</v>
       </c>
       <c r="B83">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C83">
         <v>1</v>
       </c>
       <c r="D83" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E83" t="s">
         <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G83">
-        <v>1.994725538113542</v>
+        <v>1.99729718754625</v>
       </c>
       <c r="H83">
-        <v>1.9917453775664979</v>
+        <v>2.0044497788214231</v>
       </c>
       <c r="I83" t="s">
         <v>11</v>
       </c>
       <c r="J83">
-        <v>0.86936735581778624</v>
+        <v>0.87146005390279824</v>
       </c>
       <c r="K83">
-        <v>9.3058382714978265</v>
+        <v>9.3232070202704715</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>179</v>
+        <v>140</v>
       </c>
       <c r="B84">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C84">
         <v>1</v>
       </c>
       <c r="D84" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E84" t="s">
         <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G84">
-        <v>2.0070926452061331</v>
+        <v>2.0040350439487362</v>
       </c>
       <c r="H84">
-        <v>2.0039639845816239</v>
+        <v>2.0011576879534041</v>
       </c>
       <c r="I84" t="s">
         <v>11</v>
       </c>
       <c r="J84">
-        <v>0.86827010738823285</v>
+        <v>0.87147544467682647</v>
       </c>
       <c r="K84">
-        <v>9.3293267371759896</v>
+        <v>9.3266681765789681</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="B85">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C85">
         <v>1</v>
       </c>
       <c r="D85" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E85" t="s">
         <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G85">
-        <v>2.0093246483020422</v>
+        <v>1.99575825087535</v>
       </c>
       <c r="H85">
-        <v>1.9995851221823631</v>
+        <v>2.0065982142426289</v>
       </c>
       <c r="I85" t="s">
         <v>11</v>
       </c>
       <c r="J85">
-        <v>0.86891327395437801</v>
+        <v>0.87016526864159138</v>
       </c>
       <c r="K85">
-        <v>9.3278230444387837</v>
+        <v>9.3225217337595705</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="B86">
         <v>1</v>
@@ -3354,30 +3375,30 @@
         <v>12</v>
       </c>
       <c r="E86" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F86" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G86">
-        <v>1.993607319872049</v>
+        <v>2.009441245696487</v>
       </c>
       <c r="H86">
-        <v>1.992953105567367</v>
+        <v>1.999009305902117</v>
       </c>
       <c r="I86" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J86">
-        <v>0.87190565672586762</v>
+        <v>0.87040802566433961</v>
       </c>
       <c r="K86">
-        <v>9.3084660821652854</v>
+        <v>9.3288585772629418</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>56</v>
+        <v>110</v>
       </c>
       <c r="B87">
         <v>2</v>
@@ -3389,30 +3410,30 @@
         <v>12</v>
       </c>
       <c r="E87" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F87" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G87">
-        <v>2.0028949377473202</v>
+        <v>1.9923748294794481</v>
       </c>
       <c r="H87">
-        <v>2.004109074056625</v>
+        <v>1.995951893022712</v>
       </c>
       <c r="I87" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J87">
-        <v>0.86804000989353702</v>
+        <v>0.87181661794058141</v>
       </c>
       <c r="K87">
-        <v>9.325044021697483</v>
+        <v>9.3101433404427425</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>81</v>
+        <v>210</v>
       </c>
       <c r="B88">
         <v>3</v>
@@ -3424,33 +3445,33 @@
         <v>12</v>
       </c>
       <c r="E88" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F88" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G88">
-        <v>1.993148387456442</v>
+        <v>2.0091640759097209</v>
       </c>
       <c r="H88">
-        <v>1.999037060171158</v>
+        <v>1.990956165300007</v>
       </c>
       <c r="I88" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J88">
-        <v>0.86970801942639175</v>
+        <v>0.87074205926822734</v>
       </c>
       <c r="K88">
-        <v>9.3118934670539915</v>
+        <v>9.3208623004779554</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>119</v>
+        <v>42</v>
       </c>
       <c r="B89">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C89">
         <v>1</v>
@@ -3459,33 +3480,33 @@
         <v>12</v>
       </c>
       <c r="E89" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F89" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G89">
-        <v>2.006176221927396</v>
+        <v>2.0042898745841189</v>
       </c>
       <c r="H89">
-        <v>2.0032744413904591</v>
+        <v>2.0015066301717561</v>
       </c>
       <c r="I89" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="J89">
-        <v>0.87173962349500167</v>
+        <v>0.86959014649904975</v>
       </c>
       <c r="K89">
-        <v>9.3311902868128556</v>
+        <v>9.3253866512549237</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>155</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -3494,33 +3515,33 @@
         <v>12</v>
       </c>
       <c r="E90" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F90" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G90">
-        <v>2.001966229050046</v>
+        <v>1.995386151068681</v>
       </c>
       <c r="H90">
-        <v>1.993980352175561</v>
+        <v>1.9970962573261211</v>
       </c>
       <c r="I90" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="J90">
-        <v>0.8687345555105338</v>
+        <v>0.87046777712596179</v>
       </c>
       <c r="K90">
-        <v>9.3146811367361391</v>
+        <v>9.3129501855207639</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>205</v>
+        <v>151</v>
       </c>
       <c r="B91">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -3529,65 +3550,65 @@
         <v>12</v>
       </c>
       <c r="E91" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F91" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G91">
-        <v>1.9902811498994879</v>
+        <v>2.007884573842071</v>
       </c>
       <c r="H91">
-        <v>2.0057223637796011</v>
+        <v>1.99399775940007</v>
       </c>
       <c r="I91" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="J91">
-        <v>0.86967991009860746</v>
+        <v>0.86930058270307453</v>
       </c>
       <c r="K91">
-        <v>9.3156834237776973</v>
+        <v>9.3211829159452151</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92">
+        <v>11</v>
+      </c>
+      <c r="B92">
+        <v>1</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+      <c r="D92" t="s">
+        <v>15</v>
+      </c>
+      <c r="E92" t="s">
+        <v>11</v>
+      </c>
+      <c r="F92" t="s">
         <v>23</v>
       </c>
-      <c r="B92">
-        <v>1</v>
-      </c>
-      <c r="C92">
-        <v>1</v>
-      </c>
-      <c r="D92" t="s">
-        <v>12</v>
-      </c>
-      <c r="E92" t="s">
-        <v>11</v>
-      </c>
-      <c r="F92" t="s">
-        <v>22</v>
-      </c>
       <c r="G92">
-        <v>2.006362368225187</v>
+        <v>1.991303009850381</v>
       </c>
       <c r="H92">
-        <v>2.007906580985555</v>
+        <v>1.999621770670216</v>
       </c>
       <c r="I92" t="s">
         <v>11</v>
       </c>
       <c r="J92">
-        <v>0.87167650427868726</v>
+        <v>0.86933502289415765</v>
       </c>
       <c r="K92">
-        <v>9.3359454534894279</v>
+        <v>9.3102598034147537</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>38</v>
+        <v>99</v>
       </c>
       <c r="B93">
         <v>2</v>
@@ -3596,33 +3617,33 @@
         <v>1</v>
       </c>
       <c r="D93" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E93" t="s">
         <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G93">
-        <v>2.0051320834393138</v>
+        <v>2.0096997868993438</v>
       </c>
       <c r="H93">
-        <v>1.995363620508378</v>
+        <v>1.9931431000549591</v>
       </c>
       <c r="I93" t="s">
         <v>11</v>
       </c>
       <c r="J93">
-        <v>0.86883380123323117</v>
+        <v>0.87108121822810247</v>
       </c>
       <c r="K93">
-        <v>9.3193295051809226</v>
+        <v>9.3239241051824067</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>89</v>
+        <v>216</v>
       </c>
       <c r="B94">
         <v>3</v>
@@ -3631,138 +3652,138 @@
         <v>1</v>
       </c>
       <c r="D94" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E94" t="s">
         <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G94">
-        <v>1.9988216865713899</v>
+        <v>2.0028615120329412</v>
       </c>
       <c r="H94">
-        <v>2.0079319599994618</v>
+        <v>1.9946017339486031</v>
       </c>
       <c r="I94" t="s">
         <v>11</v>
       </c>
       <c r="J94">
-        <v>0.87096746137831504</v>
+        <v>0.86998613634975097</v>
       </c>
       <c r="K94">
-        <v>9.3277211079491682</v>
+        <v>9.3174493823312936</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>117</v>
+        <v>25</v>
       </c>
       <c r="B95">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C95">
         <v>1</v>
       </c>
       <c r="D95" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G95">
-        <v>1.993012398916294</v>
+        <v>2.0048651085554741</v>
       </c>
       <c r="H95">
-        <v>1.991302833606216</v>
+        <v>1.9933072241169769</v>
       </c>
       <c r="I95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J95">
-        <v>0.87072832795980193</v>
+        <v>0.86860187390314803</v>
       </c>
       <c r="K95">
-        <v>9.3050435604823125</v>
+        <v>9.3167742065755981</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>162</v>
+        <v>131</v>
       </c>
       <c r="B96">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C96">
         <v>1</v>
       </c>
       <c r="D96" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G96">
-        <v>2.009572750257878</v>
+        <v>1.9923145897134631</v>
       </c>
       <c r="H96">
-        <v>2.004650672488232</v>
+        <v>1.996281349039049</v>
       </c>
       <c r="I96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J96">
-        <v>0.87090698113486287</v>
+        <v>0.87072460229099713</v>
       </c>
       <c r="K96">
-        <v>9.3351304038809708</v>
+        <v>9.30932054104351</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="B97">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C97">
         <v>1</v>
       </c>
       <c r="D97" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G97">
-        <v>2.0048071917166999</v>
+        <v>2.002956723662443</v>
       </c>
       <c r="H97">
-        <v>1.9943215154503799</v>
+        <v>2.003913002370064</v>
       </c>
       <c r="I97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J97">
-        <v>0.86882512161934122</v>
+        <v>0.86801863585700401</v>
       </c>
       <c r="K97">
-        <v>9.3179538287864219</v>
+        <v>9.32488836188951</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="B98">
         <v>1</v>
@@ -3771,33 +3792,33 @@
         <v>1</v>
       </c>
       <c r="D98" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E98" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F98" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G98">
-        <v>1.9968255644709361</v>
+        <v>2.0088284726814218</v>
       </c>
       <c r="H98">
-        <v>1.9916417466487919</v>
+        <v>2.0035693374690462</v>
       </c>
       <c r="I98" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="J98">
-        <v>0.868348397402255</v>
+        <v>0.86978246024247263</v>
       </c>
       <c r="K98">
-        <v>9.3068157085219827</v>
+        <v>9.3321802703929411</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>54</v>
+        <v>112</v>
       </c>
       <c r="B99">
         <v>2</v>
@@ -3806,33 +3827,33 @@
         <v>1</v>
       </c>
       <c r="D99" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E99" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F99" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G99">
-        <v>1.9917579432513139</v>
+        <v>1.999275734337292</v>
       </c>
       <c r="H99">
-        <v>2.0012727662836518</v>
+        <v>1.991996598146252</v>
       </c>
       <c r="I99" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="J99">
-        <v>0.87040972867668953</v>
+        <v>0.8689521999266856</v>
       </c>
       <c r="K99">
-        <v>9.3134404382116553</v>
+        <v>9.3102245324102295</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>77</v>
+        <v>158</v>
       </c>
       <c r="B100">
         <v>3</v>
@@ -3841,138 +3862,138 @@
         <v>1</v>
       </c>
       <c r="D100" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E100" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F100" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G100">
-        <v>2.008589125859424</v>
+        <v>2.008249319504618</v>
       </c>
       <c r="H100">
-        <v>1.999580835437107</v>
+        <v>1.99989945222027</v>
       </c>
       <c r="I100" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="J100">
-        <v>0.87049352944270963</v>
+        <v>0.87152987362136225</v>
       </c>
       <c r="K100">
-        <v>9.3286634907392401</v>
+        <v>9.3296786453462506</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101">
-        <v>113</v>
+        <v>63</v>
       </c>
       <c r="B101">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C101">
         <v>1</v>
       </c>
       <c r="D101" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E101" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G101">
-        <v>2.004494700082069</v>
+        <v>1.996391777827462</v>
       </c>
       <c r="H101">
-        <v>1.9951207892112519</v>
+        <v>2.008219332629674</v>
       </c>
       <c r="I101" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J101">
-        <v>0.8681705693462477</v>
+        <v>0.87023075193689303</v>
       </c>
       <c r="K101">
-        <v>9.3177860586395678</v>
+        <v>9.3248418623940292</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102">
-        <v>171</v>
+        <v>92</v>
       </c>
       <c r="B102">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C102">
         <v>1</v>
       </c>
       <c r="D102" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E102" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G102">
-        <v>1.996472236647268</v>
+        <v>2.004976315231866</v>
       </c>
       <c r="H102">
-        <v>1.9933235608696009</v>
+        <v>2.0051273110729859</v>
       </c>
       <c r="I102" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J102">
-        <v>0.87080073953670512</v>
+        <v>0.86975064113493095</v>
       </c>
       <c r="K102">
-        <v>9.3105965370535735</v>
+        <v>9.3298542674397833</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103">
-        <v>199</v>
+        <v>161</v>
       </c>
       <c r="B103">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C103">
         <v>1</v>
       </c>
       <c r="D103" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E103" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G103">
-        <v>1.995708489135402</v>
+        <v>1.990432591647304</v>
       </c>
       <c r="H103">
-        <v>1.990004197070192</v>
+        <v>1.997259586742949</v>
       </c>
       <c r="I103" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J103">
-        <v>0.8713581415956706</v>
+        <v>0.86937202036054861</v>
       </c>
       <c r="K103">
-        <v>9.3070708278012653</v>
+        <v>9.3070641987508029</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="B104">
         <v>1</v>
@@ -3981,33 +4002,33 @@
         <v>1</v>
       </c>
       <c r="D104" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E104" t="s">
         <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G104">
-        <v>1.9984885860081849</v>
+        <v>1.99260086462546</v>
       </c>
       <c r="H104">
-        <v>1.996398228665347</v>
+        <v>1.9928201281073159</v>
       </c>
       <c r="I104" t="s">
         <v>12</v>
       </c>
       <c r="J104">
-        <v>0.869871433195329</v>
+        <v>0.8683106136016453</v>
       </c>
       <c r="K104">
-        <v>9.3147582478688609</v>
+        <v>9.3037316063344218</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="B105">
         <v>2</v>
@@ -4016,33 +4037,33 @@
         <v>1</v>
       </c>
       <c r="D105" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E105" t="s">
         <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G105">
-        <v>1.9996623853699811</v>
+        <v>2.0027147721937348</v>
       </c>
       <c r="H105">
-        <v>1.9900378832459411</v>
+        <v>2.0049761641250359</v>
       </c>
       <c r="I105" t="s">
         <v>12</v>
       </c>
       <c r="J105">
-        <v>0.8697065288206004</v>
+        <v>0.86965729139110104</v>
       </c>
       <c r="K105">
-        <v>9.3094067974365231</v>
+        <v>9.3273482277098729</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106">
-        <v>105</v>
+        <v>202</v>
       </c>
       <c r="B106">
         <v>3</v>
@@ -4051,138 +4072,138 @@
         <v>1</v>
       </c>
       <c r="D106" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E106" t="s">
         <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G106">
-        <v>1.9978819181349801</v>
+        <v>2.0082106513266651</v>
       </c>
       <c r="H106">
-        <v>1.997433290368555</v>
+        <v>2.0055335039513378</v>
       </c>
       <c r="I106" t="s">
         <v>12</v>
       </c>
       <c r="J106">
-        <v>0.86881008085610067</v>
+        <v>0.87026347898415279</v>
       </c>
       <c r="K106">
-        <v>9.3141252893596356</v>
+        <v>9.3340076342621554</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107">
-        <v>144</v>
+        <v>36</v>
       </c>
       <c r="B107">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C107">
         <v>1</v>
       </c>
       <c r="D107" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E107" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F107" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G107">
-        <v>2.0020181718479031</v>
+        <v>1.992887451675901</v>
       </c>
       <c r="H107">
-        <v>2.0080399253392689</v>
+        <v>1.9991699508879439</v>
       </c>
       <c r="I107" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J107">
-        <v>0.87029243214794205</v>
+        <v>0.86888214589666546</v>
       </c>
       <c r="K107">
-        <v>9.3303505293351137</v>
+        <v>9.3109395484605084</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108">
-        <v>145</v>
+        <v>87</v>
       </c>
       <c r="B108">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C108">
         <v>1</v>
       </c>
       <c r="D108" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E108" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F108" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G108">
-        <v>2.008430525137745</v>
+        <v>1.9943357769688801</v>
       </c>
       <c r="H108">
-        <v>2.0026276758220209</v>
+        <v>2.0087684730469868</v>
       </c>
       <c r="I108" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J108">
-        <v>0.86969150991592092</v>
+        <v>0.86869747483378934</v>
       </c>
       <c r="K108">
-        <v>9.3307497108756863</v>
+        <v>9.3218017248496565</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109">
-        <v>216</v>
+        <v>171</v>
       </c>
       <c r="B109">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C109">
         <v>1</v>
       </c>
       <c r="D109" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E109" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F109" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G109">
-        <v>1.9915868802736869</v>
+        <v>2.0033255057186241</v>
       </c>
       <c r="H109">
-        <v>1.993339305613409</v>
+        <v>2.0004363989903329</v>
       </c>
       <c r="I109" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J109">
-        <v>0.86964007933510701</v>
+        <v>0.86865858559130538</v>
       </c>
       <c r="K109">
-        <v>9.3045662652222045</v>
+        <v>9.3224204903002619</v>
       </c>
     </row>
     <row r="110" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="B110" s="2">
         <v>1</v>
@@ -4191,33 +4212,33 @@
         <v>1</v>
       </c>
       <c r="D110" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G110" s="2">
+        <v>1.9940404555881821</v>
+      </c>
+      <c r="H110" s="2">
+        <v>1.9905981645946531</v>
+      </c>
+      <c r="I110" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E110" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F110" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G110" s="2">
-        <v>1.996274671803568</v>
-      </c>
-      <c r="H110" s="2">
-        <v>1.9930153627759559</v>
-      </c>
-      <c r="I110" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="J110" s="2">
-        <v>0.86978794903732026</v>
+        <v>0.86942844076380776</v>
       </c>
       <c r="K110" s="2">
-        <v>9.3090779836168451</v>
+        <v>9.3040670609466432</v>
       </c>
     </row>
     <row r="111" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="B111" s="2">
         <v>2</v>
@@ -4226,33 +4247,33 @@
         <v>1</v>
       </c>
       <c r="D111" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G111" s="2">
+        <v>2.0091419663362702</v>
+      </c>
+      <c r="H111" s="2">
+        <v>2.003846289818628</v>
+      </c>
+      <c r="I111" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E111" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F111" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G111" s="2">
-        <v>1.997534534965695</v>
-      </c>
-      <c r="H111" s="2">
-        <v>2.0054826637479919</v>
-      </c>
-      <c r="I111" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="J111" s="2">
-        <v>0.86860902253050765</v>
+        <v>0.86820408711302033</v>
       </c>
       <c r="K111" s="2">
-        <v>9.3216262212441947</v>
+        <v>9.3311923432679187</v>
       </c>
     </row>
     <row r="112" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
-        <v>101</v>
+        <v>148</v>
       </c>
       <c r="B112" s="2">
         <v>3</v>
@@ -4261,138 +4282,138 @@
         <v>1</v>
       </c>
       <c r="D112" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G112" s="2">
+        <v>1.992681757122073</v>
+      </c>
+      <c r="H112" s="2">
+        <v>2.006459946990728</v>
+      </c>
+      <c r="I112" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E112" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F112" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G112" s="2">
-        <v>1.9960745134961839</v>
-      </c>
-      <c r="H112" s="2">
-        <v>2.0060328225388222</v>
-      </c>
-      <c r="I112" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="J112" s="2">
-        <v>0.868301958308485</v>
+        <v>0.87175262162859335</v>
       </c>
       <c r="K112" s="2">
-        <v>9.3204092943434915</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="2">
-        <v>132</v>
-      </c>
-      <c r="B113" s="2">
-        <v>4</v>
-      </c>
-      <c r="C113" s="2">
-        <v>1</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F113" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G113" s="2">
-        <v>1.99228260243189</v>
-      </c>
-      <c r="H113" s="2">
-        <v>2.0013499097980052</v>
-      </c>
-      <c r="I113" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J113" s="2">
-        <v>0.87009962372078797</v>
-      </c>
-      <c r="K113" s="2">
-        <v>9.3137321359506835</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="2">
-        <v>157</v>
-      </c>
-      <c r="B114" s="2">
-        <v>5</v>
-      </c>
-      <c r="C114" s="2">
-        <v>1</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F114" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G114" s="2">
-        <v>2.0072908492973451</v>
-      </c>
-      <c r="H114" s="2">
-        <v>1.9937651103791061</v>
-      </c>
-      <c r="I114" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J114" s="2">
-        <v>0.87105665302330393</v>
-      </c>
-      <c r="K114" s="2">
-        <v>9.3221126126997564</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="2">
-        <v>192</v>
-      </c>
-      <c r="B115" s="2">
-        <v>6</v>
-      </c>
-      <c r="C115" s="2">
-        <v>1</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F115" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G115" s="2">
-        <v>1.999950318370928</v>
-      </c>
-      <c r="H115" s="2">
-        <v>1.9942069829386599</v>
-      </c>
-      <c r="I115" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J115" s="2">
-        <v>0.87164007039643543</v>
-      </c>
-      <c r="K115" s="2">
-        <v>9.3157973717060223</v>
+        <v>9.3208943257413939</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>53</v>
+      </c>
+      <c r="B113">
+        <v>1</v>
+      </c>
+      <c r="C113">
+        <v>1</v>
+      </c>
+      <c r="D113" t="s">
+        <v>11</v>
+      </c>
+      <c r="E113" t="s">
+        <v>15</v>
+      </c>
+      <c r="F113" t="s">
+        <v>13</v>
+      </c>
+      <c r="G113">
+        <v>1.9903460753816939</v>
+      </c>
+      <c r="H113">
+        <v>2.000748048573636</v>
+      </c>
+      <c r="I113" t="s">
+        <v>31</v>
+      </c>
+      <c r="J113">
+        <v>0.87028435333356402</v>
+      </c>
+      <c r="K113">
+        <v>9.3113784772888941</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>85</v>
+      </c>
+      <c r="B114">
+        <v>2</v>
+      </c>
+      <c r="C114">
+        <v>1</v>
+      </c>
+      <c r="D114" t="s">
+        <v>11</v>
+      </c>
+      <c r="E114" t="s">
+        <v>15</v>
+      </c>
+      <c r="F114" t="s">
+        <v>13</v>
+      </c>
+      <c r="G114">
+        <v>2.0089641080560972</v>
+      </c>
+      <c r="H114">
+        <v>2.0053225879876782</v>
+      </c>
+      <c r="I114" t="s">
+        <v>31</v>
+      </c>
+      <c r="J114">
+        <v>0.86946008249287532</v>
+      </c>
+      <c r="K114">
+        <v>9.3337467785366499</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>195</v>
+      </c>
+      <c r="B115">
+        <v>3</v>
+      </c>
+      <c r="C115">
+        <v>1</v>
+      </c>
+      <c r="D115" t="s">
+        <v>11</v>
+      </c>
+      <c r="E115" t="s">
+        <v>15</v>
+      </c>
+      <c r="F115" t="s">
+        <v>13</v>
+      </c>
+      <c r="G115">
+        <v>2.0094832413842751</v>
+      </c>
+      <c r="H115">
+        <v>2.003128764803582</v>
+      </c>
+      <c r="I115" t="s">
+        <v>31</v>
+      </c>
+      <c r="J115">
+        <v>0.86802464727951145</v>
+      </c>
+      <c r="K115">
+        <v>9.3306366534673693</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="B116">
         <v>1</v>
@@ -4401,33 +4422,33 @@
         <v>1</v>
       </c>
       <c r="D116" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F116" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G116">
-        <v>2.00333121256813</v>
+        <v>2.0014212402598939</v>
       </c>
       <c r="H116">
-        <v>2.0065998328877059</v>
+        <v>1.9934044112386371</v>
       </c>
       <c r="I116" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="J116">
-        <v>0.86863115923681122</v>
+        <v>0.86863037254639264</v>
       </c>
       <c r="K116">
-        <v>9.3285622046926466</v>
+        <v>9.3134560240449247</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B117">
         <v>2</v>
@@ -4436,33 +4457,33 @@
         <v>1</v>
       </c>
       <c r="D117" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F117" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G117">
-        <v>2.0089639064968932</v>
+        <v>2.0066303014771041</v>
       </c>
       <c r="H117">
-        <v>1.9933893839425021</v>
+        <v>2.0098476720047169</v>
       </c>
       <c r="I117" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="J117">
-        <v>0.8688636743056658</v>
+        <v>0.86883906272891775</v>
       </c>
       <c r="K117">
-        <v>9.3212169647450622</v>
+        <v>9.3353170362107392</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118">
-        <v>85</v>
+        <v>164</v>
       </c>
       <c r="B118">
         <v>3</v>
@@ -4471,138 +4492,138 @@
         <v>1</v>
       </c>
       <c r="D118" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F118" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G118">
-        <v>1.9968342095679219</v>
+        <v>2.0052237357071472</v>
       </c>
       <c r="H118">
-        <v>1.9903837384006331</v>
+        <v>2.006527281254443</v>
       </c>
       <c r="I118" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="J118">
-        <v>0.87022684328394162</v>
+        <v>0.8707593926126137</v>
       </c>
       <c r="K118">
-        <v>9.3074447912524967</v>
+        <v>9.3325104095742031</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119">
-        <v>123</v>
+        <v>27</v>
       </c>
       <c r="B119">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C119">
         <v>1</v>
       </c>
       <c r="D119" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E119" t="s">
         <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G119">
-        <v>1.9951945946325209</v>
+        <v>1.9949518287455561</v>
       </c>
       <c r="H119">
-        <v>2.0092149968817239</v>
+        <v>2.009751484142277</v>
       </c>
       <c r="I119" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="J119">
-        <v>0.87043453399047244</v>
+        <v>0.87184310410977539</v>
       </c>
       <c r="K119">
-        <v>9.3248441255047183</v>
+        <v>9.3265464169976084</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120">
-        <v>174</v>
+        <v>115</v>
       </c>
       <c r="B120">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C120">
         <v>1</v>
       </c>
       <c r="D120" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E120" t="s">
         <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G120">
-        <v>2.0051866959176969</v>
+        <v>2.004261020902748</v>
       </c>
       <c r="H120">
-        <v>1.994339294935334</v>
+        <v>1.99475495493963</v>
       </c>
       <c r="I120" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="J120">
-        <v>0.87026812732032566</v>
+        <v>0.87163252058991048</v>
       </c>
       <c r="K120">
-        <v>9.3197941181733572</v>
+        <v>9.3206484964322893</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121">
-        <v>204</v>
+        <v>170</v>
       </c>
       <c r="B121">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C121">
         <v>1</v>
       </c>
       <c r="D121" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E121" t="s">
         <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G121">
-        <v>2.0069707566171822</v>
+        <v>1.9909888420043489</v>
       </c>
       <c r="H121">
-        <v>1.9955777628308411</v>
+        <v>2.0029617312102479</v>
       </c>
       <c r="I121" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="J121">
-        <v>0.87176903889291302</v>
+        <v>0.87176717477294863</v>
       </c>
       <c r="K121">
-        <v>9.324317558340935</v>
+        <v>9.315717747987545</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B122">
         <v>1</v>
@@ -4614,30 +4635,30 @@
         <v>12</v>
       </c>
       <c r="E122" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F122" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G122">
-        <v>1.992813035869347</v>
+        <v>1.9928338616890831</v>
       </c>
       <c r="H122">
-        <v>2.0043312780794218</v>
+        <v>1.9902795128769259</v>
       </c>
       <c r="I122" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="J122">
-        <v>0.87160858364771288</v>
+        <v>0.87100236733000924</v>
       </c>
       <c r="K122">
-        <v>9.3187528975964824</v>
+        <v>9.3041157418960179</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="B123">
         <v>2</v>
@@ -4649,30 +4670,30 @@
         <v>12</v>
       </c>
       <c r="E123" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F123" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G123">
-        <v>1.997400972257912</v>
+        <v>2.0012148377961578</v>
       </c>
       <c r="H123">
-        <v>2.006055122151575</v>
+        <v>1.994087187373762</v>
       </c>
       <c r="I123" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="J123">
-        <v>0.87191429485226479</v>
+        <v>0.86894125602348848</v>
       </c>
       <c r="K123">
-        <v>9.325370389261753</v>
+        <v>9.3142432811934075</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124">
-        <v>107</v>
+        <v>206</v>
       </c>
       <c r="B124">
         <v>3</v>
@@ -4684,33 +4705,33 @@
         <v>12</v>
       </c>
       <c r="E124" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F124" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G124">
-        <v>2.0077130840594348</v>
+        <v>2.005191277425554</v>
       </c>
       <c r="H124">
-        <v>2.0020652067569369</v>
+        <v>1.997624171401261</v>
       </c>
       <c r="I124" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="J124">
-        <v>0.86841744283136202</v>
+        <v>0.86825581389444539</v>
       </c>
       <c r="K124">
-        <v>9.3281957336477337</v>
+        <v>9.3210712627212597</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125">
-        <v>143</v>
+        <v>20</v>
       </c>
       <c r="B125">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C125">
         <v>1</v>
@@ -4719,33 +4740,33 @@
         <v>12</v>
       </c>
       <c r="E125" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F125" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G125">
-        <v>1.999297331705616</v>
+        <v>1.995091629211426</v>
       </c>
       <c r="H125">
-        <v>1.99209020847181</v>
+        <v>1.9991691367371811</v>
       </c>
       <c r="I125" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="J125">
-        <v>0.86945946473821623</v>
+        <v>0.86983831371126852</v>
       </c>
       <c r="K125">
-        <v>9.310847004915642</v>
+        <v>9.3140990796598757</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126">
-        <v>168</v>
+        <v>83</v>
       </c>
       <c r="B126">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C126">
         <v>1</v>
@@ -4754,33 +4775,33 @@
         <v>12</v>
       </c>
       <c r="E126" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F126" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G126">
-        <v>1.9943143155440479</v>
+        <v>1.9922270930398129</v>
       </c>
       <c r="H126">
-        <v>2.0038040277388669</v>
+        <v>1.9907569805537411</v>
       </c>
       <c r="I126" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="J126">
-        <v>0.87185576200261927</v>
+        <v>0.86872673555659019</v>
       </c>
       <c r="K126">
-        <v>9.3199741052855334</v>
+        <v>9.3017108091501441</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B127">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C127">
         <v>1</v>
@@ -4789,65 +4810,65 @@
         <v>12</v>
       </c>
       <c r="E127" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F127" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G127">
-        <v>1.9973171546924879</v>
+        <v>1.999610854099338</v>
       </c>
       <c r="H127">
-        <v>1.999988800172779</v>
+        <v>2.0020869842689639</v>
       </c>
       <c r="I127" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="J127">
-        <v>0.86961667110349805</v>
+        <v>0.86801098362403961</v>
       </c>
       <c r="K127">
-        <v>9.3169226259687665</v>
+        <v>9.3197088219923412</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128">
+        <v>51</v>
+      </c>
+      <c r="B128">
+        <v>1</v>
+      </c>
+      <c r="C128">
+        <v>1</v>
+      </c>
+      <c r="D128" t="s">
+        <v>15</v>
+      </c>
+      <c r="E128" t="s">
+        <v>11</v>
+      </c>
+      <c r="F128" t="s">
+        <v>13</v>
+      </c>
+      <c r="G128">
+        <v>2.0038295536865069</v>
+      </c>
+      <c r="H128">
+        <v>1.999265334841752</v>
+      </c>
+      <c r="I128" t="s">
         <v>21</v>
       </c>
-      <c r="B128">
-        <v>1</v>
-      </c>
-      <c r="C128">
-        <v>1</v>
-      </c>
-      <c r="D128" t="s">
-        <v>12</v>
-      </c>
-      <c r="E128" t="s">
-        <v>11</v>
-      </c>
-      <c r="F128" t="s">
-        <v>18</v>
-      </c>
-      <c r="G128">
-        <v>1.990278931454651</v>
-      </c>
-      <c r="H128">
-        <v>2.0024600118870031</v>
-      </c>
-      <c r="I128" t="s">
-        <v>23</v>
-      </c>
       <c r="J128">
-        <v>0.86883081638866599</v>
+        <v>0.87111698254324355</v>
       </c>
       <c r="K128">
-        <v>9.31156975973032</v>
+        <v>9.324211871071503</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129">
-        <v>59</v>
+        <v>121</v>
       </c>
       <c r="B129">
         <v>2</v>
@@ -4856,33 +4877,33 @@
         <v>1</v>
       </c>
       <c r="D129" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E129" t="s">
         <v>11</v>
       </c>
       <c r="F129" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G129">
-        <v>1.995884963280887</v>
+        <v>1.9925081134188469</v>
       </c>
       <c r="H129">
-        <v>2.007270754376731</v>
+        <v>2.004925963306242</v>
       </c>
       <c r="I129" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J129">
-        <v>0.86936424307474758</v>
+        <v>0.86855521115884482</v>
       </c>
       <c r="K129">
-        <v>9.3225199607323663</v>
+        <v>9.3159892878839337</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130">
-        <v>80</v>
+        <v>203</v>
       </c>
       <c r="B130">
         <v>3</v>
@@ -4891,138 +4912,138 @@
         <v>1</v>
       </c>
       <c r="D130" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E130" t="s">
         <v>11</v>
       </c>
       <c r="F130" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G130">
-        <v>1.9939203997035111</v>
+        <v>1.997010274179631</v>
       </c>
       <c r="H130">
-        <v>1.9919620025008511</v>
+        <v>2.0040497832678721</v>
       </c>
       <c r="I130" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J130">
-        <v>0.86961986903035626</v>
+        <v>0.86889775994674856</v>
       </c>
       <c r="K130">
-        <v>9.3055022712347188</v>
+        <v>9.3199578173942506</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131">
-        <v>139</v>
+        <v>38</v>
       </c>
       <c r="B131">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C131">
         <v>1</v>
       </c>
       <c r="D131" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E131" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F131" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G131">
-        <v>1.9920945763709721</v>
+        <v>2.0038072162683931</v>
       </c>
       <c r="H131">
-        <v>1.9900695863958699</v>
+        <v>1.9920211734204809</v>
       </c>
       <c r="I131" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J131">
-        <v>0.86919289112201847</v>
+        <v>0.86934957709727656</v>
       </c>
       <c r="K131">
-        <v>9.3013570538888608</v>
+        <v>9.3151779667861501</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132">
-        <v>176</v>
+        <v>105</v>
       </c>
       <c r="B132">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C132">
         <v>1</v>
       </c>
       <c r="D132" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E132" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F132" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G132">
-        <v>1.994756585778275</v>
+        <v>1.991715686925539</v>
       </c>
       <c r="H132">
-        <v>1.994399620231107</v>
+        <v>1.9974879085023329</v>
       </c>
       <c r="I132" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J132">
-        <v>0.87079309496677715</v>
+        <v>0.87060324472050765</v>
       </c>
       <c r="K132">
-        <v>9.3099493009761591</v>
+        <v>9.3098068401483811</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="B133">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C133">
         <v>1</v>
       </c>
       <c r="D133" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E133" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F133" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G133">
-        <v>2.0072356472291308</v>
+        <v>1.9983903968514529</v>
       </c>
       <c r="H133">
-        <v>2.0024496362830542</v>
+        <v>2.003566037495693</v>
       </c>
       <c r="I133" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J133">
-        <v>0.87070326956164901</v>
+        <v>0.87081982754401777</v>
       </c>
       <c r="K133">
-        <v>9.3303885530738349</v>
+        <v>9.322776261891164</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="B134">
         <v>1</v>
@@ -5031,33 +5052,33 @@
         <v>1</v>
       </c>
       <c r="D134" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E134" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F134" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G134">
-        <v>2.0084832602457641</v>
+        <v>1.997159284985597</v>
       </c>
       <c r="H134">
-        <v>1.9926617301487179</v>
+        <v>1.9960851345490189</v>
       </c>
       <c r="I134" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="J134">
-        <v>0.86947978923732361</v>
+        <v>0.87002482766297173</v>
       </c>
       <c r="K134">
-        <v>9.3206247796318067</v>
+        <v>9.3132692471975869</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135">
-        <v>39</v>
+        <v>119</v>
       </c>
       <c r="B135">
         <v>2</v>
@@ -5066,33 +5087,33 @@
         <v>1</v>
       </c>
       <c r="D135" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E135" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F135" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G135">
-        <v>2.000073261839904</v>
+        <v>1.9975599184637409</v>
       </c>
       <c r="H135">
-        <v>2.0040972376307939</v>
+        <v>2.001835434861686</v>
       </c>
       <c r="I135" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="J135">
-        <v>0.87005164451802641</v>
+        <v>0.87142874476976029</v>
       </c>
       <c r="K135">
-        <v>9.3242221439887256</v>
+        <v>9.3208240980951871</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136">
-        <v>99</v>
+        <v>211</v>
       </c>
       <c r="B136">
         <v>3</v>
@@ -5101,138 +5122,138 @@
         <v>1</v>
       </c>
       <c r="D136" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E136" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F136" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G136">
-        <v>2.0038317168120861</v>
+        <v>2.0050912277310098</v>
       </c>
       <c r="H136">
-        <v>2.0093028240856858</v>
+        <v>2.0077508475099521</v>
       </c>
       <c r="I136" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="J136">
-        <v>0.86825218421420647</v>
+        <v>0.86917766172331268</v>
       </c>
       <c r="K136">
-        <v>9.3313867251119795</v>
+        <v>9.3320197369642752</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137">
-        <v>121</v>
+        <v>41</v>
       </c>
       <c r="B137">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C137">
         <v>1</v>
       </c>
       <c r="D137" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E137" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F137" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G137">
-        <v>2.0015164162579491</v>
+        <v>2.0009617120513732</v>
       </c>
       <c r="H137">
-        <v>2.005451685930046</v>
+        <v>2.0060256200721489</v>
       </c>
       <c r="I137" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="J137">
-        <v>0.86925523184177822</v>
+        <v>0.87124669178268255</v>
       </c>
       <c r="K137">
-        <v>9.3262233340297733</v>
+        <v>9.3282340239062034</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138">
-        <v>152</v>
+        <v>103</v>
       </c>
       <c r="B138">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C138">
         <v>1</v>
       </c>
       <c r="D138" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E138" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F138" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G138">
-        <v>1.990068632758401</v>
+        <v>1.99374376391083</v>
       </c>
       <c r="H138">
-        <v>2.0041711256464332</v>
+        <v>1.9906264626783461</v>
       </c>
       <c r="I138" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="J138">
-        <v>0.86876144730490101</v>
+        <v>0.87103230160071188</v>
       </c>
       <c r="K138">
-        <v>9.3130012057097353</v>
+        <v>9.3054025281898891</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139">
-        <v>213</v>
+        <v>190</v>
       </c>
       <c r="B139">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C139">
         <v>1</v>
       </c>
       <c r="D139" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E139" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F139" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G139">
-        <v>2.0078063911633102</v>
+        <v>1.9957253629439129</v>
       </c>
       <c r="H139">
-        <v>1.9984599193851209</v>
+        <v>2.0031430493220501</v>
       </c>
       <c r="I139" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="J139">
-        <v>0.87145070728928942</v>
+        <v>0.86967835189629183</v>
       </c>
       <c r="K139">
-        <v>9.3277170178377204</v>
+        <v>9.3185467641622548</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="B140">
         <v>1</v>
@@ -5241,33 +5262,33 @@
         <v>1</v>
       </c>
       <c r="D140" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E140" t="s">
         <v>12</v>
       </c>
       <c r="F140" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G140">
-        <v>1.990776291651807</v>
+        <v>2.0044881951373239</v>
       </c>
       <c r="H140">
-        <v>2.004487355102492</v>
+        <v>2.008836205273107</v>
       </c>
       <c r="I140" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J140">
-        <v>0.86848251310779556</v>
+        <v>0.86859361074265462</v>
       </c>
       <c r="K140">
-        <v>9.3137461598620952</v>
+        <v>9.3319180111530873</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141">
-        <v>49</v>
+        <v>133</v>
       </c>
       <c r="B141">
         <v>2</v>
@@ -5276,33 +5297,33 @@
         <v>1</v>
       </c>
       <c r="D141" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E141" t="s">
         <v>12</v>
       </c>
       <c r="F141" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G141">
-        <v>1.991391055509766</v>
+        <v>1.9900612246291081</v>
       </c>
       <c r="H141">
-        <v>2.0078555915944829</v>
+        <v>2.00708779739294</v>
       </c>
       <c r="I141" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J141">
-        <v>0.87134969355648539</v>
+        <v>0.87065355659526489</v>
       </c>
       <c r="K141">
-        <v>9.3205963406607353</v>
+        <v>9.3178025786173126</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142">
-        <v>93</v>
+        <v>184</v>
       </c>
       <c r="B142">
         <v>3</v>
@@ -5311,138 +5332,138 @@
         <v>1</v>
       </c>
       <c r="D142" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E142" t="s">
         <v>12</v>
       </c>
       <c r="F142" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G142">
-        <v>2.0046232253816418</v>
+        <v>2.0091277752295911</v>
       </c>
       <c r="H142">
-        <v>1.997394529309946</v>
+        <v>2.0039929927848781</v>
       </c>
       <c r="I142" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J142">
-        <v>0.86959838658411626</v>
+        <v>0.86976546535555932</v>
       </c>
       <c r="K142">
-        <v>9.3216161412757046</v>
+        <v>9.3328862333700293</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143">
-        <v>115</v>
+        <v>47</v>
       </c>
       <c r="B143">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C143">
         <v>1</v>
       </c>
       <c r="D143" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E143" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F143" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G143">
-        <v>1.9944096295404079</v>
+        <v>2.0032000072935889</v>
       </c>
       <c r="H143">
-        <v>2.005179267324332</v>
+        <v>1.999706611839823</v>
       </c>
       <c r="I143" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="J143">
-        <v>0.87076771275406373</v>
+        <v>0.8702742687550562</v>
       </c>
       <c r="K143">
-        <v>9.3203566096188037</v>
+        <v>9.3231808878884674</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144">
-        <v>166</v>
+        <v>81</v>
       </c>
       <c r="B144">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C144">
         <v>1</v>
       </c>
       <c r="D144" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E144" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F144" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G144">
-        <v>2.0010622336960782</v>
+        <v>2.0029135765702581</v>
       </c>
       <c r="H144">
-        <v>1.9940271179842599</v>
+        <v>2.005701770718928</v>
       </c>
       <c r="I144" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="J144">
-        <v>0.86853555051135289</v>
+        <v>0.86815330960499959</v>
       </c>
       <c r="K144">
-        <v>9.313624902191691</v>
+        <v>9.3267686568941848</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145">
-        <v>201</v>
+        <v>152</v>
       </c>
       <c r="B145">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C145">
         <v>1</v>
       </c>
       <c r="D145" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E145" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F145" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G145">
-        <v>2.0081211195728792</v>
+        <v>2.0096853566467852</v>
       </c>
       <c r="H145">
-        <v>1.9966460229952501</v>
+        <v>2.0075022109549008</v>
       </c>
       <c r="I145" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="J145">
-        <v>0.87181127641611189</v>
+        <v>0.86951188598202767</v>
       </c>
       <c r="K145">
-        <v>9.3265784189842424</v>
+        <v>9.336699453583714</v>
       </c>
     </row>
     <row r="146" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A146" s="2">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="B146" s="2">
         <v>1</v>
@@ -5451,33 +5472,33 @@
         <v>1</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E146" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G146" s="2">
-        <v>1.9928737470417079</v>
+        <v>2.0025564788919672</v>
       </c>
       <c r="H146" s="2">
-        <v>1.9969460158230179</v>
+        <v>1.9929093811393179</v>
       </c>
       <c r="I146" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="J146" s="2">
-        <v>0.86947147118987145</v>
+        <v>0.87158055492650466</v>
       </c>
       <c r="K146" s="2">
-        <v>9.3092912340545979</v>
+        <v>9.3170464149577903</v>
       </c>
     </row>
     <row r="147" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A147" s="2">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="B147" s="2">
         <v>1</v>
@@ -5486,33 +5507,33 @@
         <v>1</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E147" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G147" s="2">
-        <v>2.0043764422484531</v>
+        <v>1.9949435289419031</v>
       </c>
       <c r="H147" s="2">
-        <v>1.993856737666112</v>
+        <v>2.0006620293090678</v>
       </c>
       <c r="I147" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="J147" s="2">
-        <v>0.86802616950813094</v>
+        <v>0.86837542392974987</v>
       </c>
       <c r="K147" s="2">
-        <v>9.3162593494226957</v>
+        <v>9.3139809821807216</v>
       </c>
     </row>
     <row r="148" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A148" s="2">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="B148" s="2">
         <v>2</v>
@@ -5521,33 +5542,33 @@
         <v>1</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E148" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G148" s="2">
-        <v>1.9957465098309499</v>
+        <v>2.0096280942979519</v>
       </c>
       <c r="H148" s="2">
-        <v>1.9931734307374771</v>
+        <v>1.9989925189184401</v>
       </c>
       <c r="I148" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="J148" s="2">
-        <v>0.87175803110573624</v>
+        <v>0.86861255451778208</v>
       </c>
       <c r="K148" s="2">
-        <v>9.3106779716741634</v>
+        <v>9.3272331677341747</v>
       </c>
     </row>
     <row r="149" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A149" s="2">
-        <v>50</v>
+        <v>128</v>
       </c>
       <c r="B149" s="2">
         <v>2</v>
@@ -5556,33 +5577,33 @@
         <v>1</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E149" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G149" s="2">
-        <v>1.998414087382179</v>
+        <v>1.9937294827025469</v>
       </c>
       <c r="H149" s="2">
-        <v>1.994474714289787</v>
+        <v>2.0065932174664298</v>
       </c>
       <c r="I149" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="J149" s="2">
-        <v>0.87053944855495102</v>
+        <v>0.86902164295403361</v>
       </c>
       <c r="K149" s="2">
-        <v>9.3134282502269166</v>
+        <v>9.3193443431230101</v>
       </c>
     </row>
     <row r="150" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A150" s="2">
-        <v>84</v>
+        <v>174</v>
       </c>
       <c r="B150" s="2">
         <v>3</v>
@@ -5591,33 +5612,33 @@
         <v>1</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E150" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G150" s="2">
-        <v>1.9943391158594239</v>
+        <v>1.995128190085409</v>
       </c>
       <c r="H150" s="2">
-        <v>1.9912571425958221</v>
+        <v>1.9920024325519079</v>
       </c>
       <c r="I150" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="J150" s="2">
-        <v>0.87101875184431932</v>
+        <v>0.87075981781730549</v>
       </c>
       <c r="K150" s="2">
-        <v>9.3066150102995664</v>
+        <v>9.3078904404546225</v>
       </c>
     </row>
     <row r="151" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A151" s="2">
-        <v>92</v>
+        <v>192</v>
       </c>
       <c r="B151" s="2">
         <v>3</v>
@@ -5626,243 +5647,243 @@
         <v>1</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E151" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G151" s="2">
-        <v>1.9911161459425459</v>
+        <v>1.9907662693805359</v>
       </c>
       <c r="H151" s="2">
-        <v>1.9995736712349621</v>
+        <v>1.997563464623052</v>
       </c>
       <c r="I151" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J151" s="2">
+        <v>0.86898036751403718</v>
+      </c>
+      <c r="K151" s="2">
+        <v>9.3073101015176256</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>8</v>
+      </c>
+      <c r="B152">
+        <v>1</v>
+      </c>
+      <c r="C152">
+        <v>1</v>
+      </c>
+      <c r="D152" t="s">
+        <v>11</v>
+      </c>
+      <c r="E152" t="s">
+        <v>15</v>
+      </c>
+      <c r="F152" t="s">
+        <v>19</v>
+      </c>
+      <c r="G152">
+        <v>1.99469539469794</v>
+      </c>
+      <c r="H152">
+        <v>1.9903989423395581</v>
+      </c>
+      <c r="I152" t="s">
         <v>21</v>
       </c>
-      <c r="J151" s="2">
-        <v>0.86992561653658795</v>
-      </c>
-      <c r="K151" s="2">
-        <v>9.3106154337140943</v>
-      </c>
-    </row>
-    <row r="152" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="2">
-        <v>122</v>
-      </c>
-      <c r="B152" s="2">
-        <v>4</v>
-      </c>
-      <c r="C152" s="2">
-        <v>1</v>
-      </c>
-      <c r="D152" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E152" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F152" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G152" s="2">
-        <v>2.0032684259023572</v>
-      </c>
-      <c r="H152" s="2">
-        <v>1.990699063483887</v>
-      </c>
-      <c r="I152" s="2" t="s">
+      <c r="J152">
+        <v>0.87178116672428674</v>
+      </c>
+      <c r="K152">
+        <v>9.3068755037617841</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>23</v>
+      </c>
+      <c r="B153">
+        <v>1</v>
+      </c>
+      <c r="C153">
+        <v>1</v>
+      </c>
+      <c r="D153" t="s">
+        <v>11</v>
+      </c>
+      <c r="E153" t="s">
+        <v>15</v>
+      </c>
+      <c r="F153" t="s">
+        <v>19</v>
+      </c>
+      <c r="G153">
+        <v>2.002011331531353</v>
+      </c>
+      <c r="H153">
+        <v>2.0069872488604221</v>
+      </c>
+      <c r="I153" t="s">
         <v>21</v>
       </c>
-      <c r="J152" s="2">
-        <v>0.87045507491019947</v>
-      </c>
-      <c r="K152" s="2">
-        <v>9.3144225642964429</v>
-      </c>
-    </row>
-    <row r="153" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="2">
-        <v>138</v>
-      </c>
-      <c r="B153" s="2">
-        <v>4</v>
-      </c>
-      <c r="C153" s="2">
-        <v>1</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E153" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F153" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G153" s="2">
-        <v>2.0045062693532629</v>
-      </c>
-      <c r="H153" s="2">
-        <v>2.0002054251296171</v>
-      </c>
-      <c r="I153" s="2" t="s">
+      <c r="J153">
+        <v>0.8693574555987903</v>
+      </c>
+      <c r="K153">
+        <v>9.3283560359905646</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>130</v>
+      </c>
+      <c r="B154">
+        <v>2</v>
+      </c>
+      <c r="C154">
+        <v>1</v>
+      </c>
+      <c r="D154" t="s">
+        <v>11</v>
+      </c>
+      <c r="E154" t="s">
+        <v>15</v>
+      </c>
+      <c r="F154" t="s">
+        <v>19</v>
+      </c>
+      <c r="G154">
+        <v>1.992774381150294</v>
+      </c>
+      <c r="H154">
+        <v>2.0020622686596559</v>
+      </c>
+      <c r="I154" t="s">
         <v>21</v>
       </c>
-      <c r="J153" s="2">
-        <v>0.86880651029428402</v>
-      </c>
-      <c r="K153" s="2">
-        <v>9.3235182047771641</v>
-      </c>
-    </row>
-    <row r="154" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="2">
-        <v>173</v>
-      </c>
-      <c r="B154" s="2">
-        <v>5</v>
-      </c>
-      <c r="C154" s="2">
-        <v>1</v>
-      </c>
-      <c r="D154" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E154" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F154" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G154" s="2">
-        <v>2.0067492100275879</v>
-      </c>
-      <c r="H154" s="2">
-        <v>1.993473189626958</v>
-      </c>
-      <c r="I154" s="2" t="s">
+      <c r="J154">
+        <v>0.8710124169935578</v>
+      </c>
+      <c r="K154">
+        <v>9.3158490668035085</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>143</v>
+      </c>
+      <c r="B155">
+        <v>2</v>
+      </c>
+      <c r="C155">
+        <v>1</v>
+      </c>
+      <c r="D155" t="s">
+        <v>11</v>
+      </c>
+      <c r="E155" t="s">
+        <v>15</v>
+      </c>
+      <c r="F155" t="s">
+        <v>19</v>
+      </c>
+      <c r="G155">
+        <v>2.0081958388698542</v>
+      </c>
+      <c r="H155">
+        <v>1.996728693424219</v>
+      </c>
+      <c r="I155" t="s">
         <v>21</v>
       </c>
-      <c r="J154" s="2">
-        <v>0.86854055235220307</v>
-      </c>
-      <c r="K154" s="2">
-        <v>9.3187629520067485</v>
-      </c>
-    </row>
-    <row r="155" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="2">
-        <v>175</v>
-      </c>
-      <c r="B155" s="2">
-        <v>5</v>
-      </c>
-      <c r="C155" s="2">
-        <v>1</v>
-      </c>
-      <c r="D155" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E155" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F155" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G155" s="2">
-        <v>1.9961743802794241</v>
-      </c>
-      <c r="H155" s="2">
-        <v>1.996935700917394</v>
-      </c>
-      <c r="I155" s="2" t="s">
+      <c r="J155">
+        <v>0.8717409755387906</v>
+      </c>
+      <c r="K155">
+        <v>9.3266655078328622</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>183</v>
+      </c>
+      <c r="B156">
+        <v>3</v>
+      </c>
+      <c r="C156">
+        <v>1</v>
+      </c>
+      <c r="D156" t="s">
+        <v>11</v>
+      </c>
+      <c r="E156" t="s">
+        <v>15</v>
+      </c>
+      <c r="F156" t="s">
+        <v>19</v>
+      </c>
+      <c r="G156">
+        <v>2.0034993777563548</v>
+      </c>
+      <c r="H156">
+        <v>1.990864962523359</v>
+      </c>
+      <c r="I156" t="s">
         <v>21</v>
       </c>
-      <c r="J155" s="2">
-        <v>0.86827802102977292</v>
-      </c>
-      <c r="K155" s="2">
-        <v>9.3113881022265907</v>
-      </c>
-    </row>
-    <row r="156" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="2">
-        <v>198</v>
-      </c>
-      <c r="B156" s="2">
-        <v>6</v>
-      </c>
-      <c r="C156" s="2">
-        <v>1</v>
-      </c>
-      <c r="D156" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E156" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F156" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G156" s="2">
-        <v>1.993793369651452</v>
-      </c>
-      <c r="H156" s="2">
-        <v>1.991525102485374</v>
-      </c>
-      <c r="I156" s="2" t="s">
+      <c r="J156">
+        <v>0.87116583742150722</v>
+      </c>
+      <c r="K156">
+        <v>9.3155301777012216</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>214</v>
+      </c>
+      <c r="B157">
+        <v>3</v>
+      </c>
+      <c r="C157">
+        <v>1</v>
+      </c>
+      <c r="D157" t="s">
+        <v>11</v>
+      </c>
+      <c r="E157" t="s">
+        <v>15</v>
+      </c>
+      <c r="F157" t="s">
+        <v>19</v>
+      </c>
+      <c r="G157">
+        <v>1.995143612070797</v>
+      </c>
+      <c r="H157">
+        <v>1.9956792305847839</v>
+      </c>
+      <c r="I157" t="s">
         <v>21</v>
       </c>
-      <c r="J156" s="2">
-        <v>0.87107470803017617</v>
-      </c>
-      <c r="K156" s="2">
-        <v>9.306393180167003</v>
-      </c>
-    </row>
-    <row r="157" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="2">
-        <v>200</v>
-      </c>
-      <c r="B157" s="2">
-        <v>6</v>
-      </c>
-      <c r="C157" s="2">
-        <v>1</v>
-      </c>
-      <c r="D157" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E157" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F157" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G157" s="2">
-        <v>1.99697459014664</v>
-      </c>
-      <c r="H157" s="2">
-        <v>1.9932117237537459</v>
-      </c>
-      <c r="I157" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J157" s="2">
-        <v>0.87014470801229205</v>
-      </c>
-      <c r="K157" s="2">
-        <v>9.3103310219126794</v>
+      <c r="J157">
+        <v>0.86872763901905403</v>
+      </c>
+      <c r="K157">
+        <v>9.3095504816746359</v>
       </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="B158">
         <v>1</v>
@@ -5871,33 +5892,33 @@
         <v>1</v>
       </c>
       <c r="D158" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E158" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F158" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G158">
-        <v>1.995844856526785</v>
+        <v>1.9968969232432601</v>
       </c>
       <c r="H158">
-        <v>2.004808101964775</v>
+        <v>1.999848322580694</v>
       </c>
       <c r="I158" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="J158">
-        <v>0.86964740813834529</v>
+        <v>0.86856001672172189</v>
       </c>
       <c r="K158">
-        <v>9.3203003666299047</v>
+        <v>9.3153052625456745</v>
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="B159">
         <v>1</v>
@@ -5906,33 +5927,33 @@
         <v>1</v>
       </c>
       <c r="D159" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E159" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F159" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G159">
-        <v>1.9955733557539721</v>
+        <v>2.006732201600911</v>
       </c>
       <c r="H159">
-        <v>2.00230689684384</v>
+        <v>2.0048944439703882</v>
       </c>
       <c r="I159" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="J159">
-        <v>0.87031713525037957</v>
+        <v>0.8717076864644242</v>
       </c>
       <c r="K159">
-        <v>9.3181973878481923</v>
+        <v>9.3333343320357223</v>
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="B160">
         <v>2</v>
@@ -5941,33 +5962,33 @@
         <v>1</v>
       </c>
       <c r="D160" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E160" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F160" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G160">
-        <v>2.002234546819138</v>
+        <v>1.9931564950100169</v>
       </c>
       <c r="H160">
-        <v>2.0086785972197561</v>
+        <v>2.0045649446863658</v>
       </c>
       <c r="I160" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="J160">
-        <v>0.87052935893708849</v>
+        <v>0.87037171535021629</v>
       </c>
       <c r="K160">
-        <v>9.3314425029759835</v>
+        <v>9.3180931550466006</v>
       </c>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161">
-        <v>66</v>
+        <v>114</v>
       </c>
       <c r="B161">
         <v>2</v>
@@ -5976,33 +5997,33 @@
         <v>1</v>
       </c>
       <c r="D161" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E161" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F161" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G161">
-        <v>1.997381032652966</v>
+        <v>1.9942653446375089</v>
       </c>
       <c r="H161">
-        <v>2.0095078341044599</v>
+        <v>2.0079690692860011</v>
       </c>
       <c r="I161" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="J161">
-        <v>0.86952686419237846</v>
+        <v>0.87101878056883419</v>
       </c>
       <c r="K161">
-        <v>9.3264157309498064</v>
+        <v>9.3232531944923434</v>
       </c>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162">
-        <v>73</v>
+        <v>176</v>
       </c>
       <c r="B162">
         <v>3</v>
@@ -6011,33 +6032,33 @@
         <v>1</v>
       </c>
       <c r="D162" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E162" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F162" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G162">
-        <v>1.998736193598788</v>
+        <v>2.0086714880659562</v>
       </c>
       <c r="H162">
-        <v>1.9981407885519711</v>
+        <v>1.994247125432997</v>
       </c>
       <c r="I162" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="J162">
-        <v>0.86919151189719013</v>
+        <v>0.87072238684011205</v>
       </c>
       <c r="K162">
-        <v>9.3160684940479488</v>
+        <v>9.3236410003390642</v>
       </c>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163">
-        <v>106</v>
+        <v>209</v>
       </c>
       <c r="B163">
         <v>3</v>
@@ -6046,243 +6067,243 @@
         <v>1</v>
       </c>
       <c r="D163" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E163" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F163" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G163">
-        <v>1.9994785674938931</v>
+        <v>1.998913434374064</v>
       </c>
       <c r="H163">
-        <v>1.993357979142742</v>
+        <v>2.0021839351889792</v>
       </c>
       <c r="I163" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="J163">
-        <v>0.87096452291135618</v>
+        <v>0.87196007749913274</v>
       </c>
       <c r="K163">
-        <v>9.3138010695479903</v>
+        <v>9.3230574470621761</v>
       </c>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164">
-        <v>111</v>
+        <v>46</v>
       </c>
       <c r="B164">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C164">
         <v>1</v>
       </c>
       <c r="D164" t="s">
+        <v>12</v>
+      </c>
+      <c r="E164" t="s">
+        <v>11</v>
+      </c>
+      <c r="F164" t="s">
+        <v>19</v>
+      </c>
+      <c r="G164">
+        <v>1.9917885839407219</v>
+      </c>
+      <c r="H164">
+        <v>1.9900799776970031</v>
+      </c>
+      <c r="I164" t="s">
         <v>14</v>
       </c>
-      <c r="E164" t="s">
-        <v>11</v>
-      </c>
-      <c r="F164" t="s">
-        <v>16</v>
-      </c>
-      <c r="G164">
-        <v>1.9987305384939089</v>
-      </c>
-      <c r="H164">
-        <v>2.008692294300753</v>
-      </c>
-      <c r="I164" t="s">
-        <v>24</v>
-      </c>
       <c r="J164">
-        <v>0.86908994303615816</v>
+        <v>0.86938487325875591</v>
       </c>
       <c r="K164">
-        <v>9.3265127758308211</v>
+        <v>9.3012534348964806</v>
       </c>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165">
-        <v>140</v>
+        <v>52</v>
       </c>
       <c r="B165">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C165">
         <v>1</v>
       </c>
       <c r="D165" t="s">
+        <v>12</v>
+      </c>
+      <c r="E165" t="s">
+        <v>11</v>
+      </c>
+      <c r="F165" t="s">
+        <v>19</v>
+      </c>
+      <c r="G165">
+        <v>2.0022410985415542</v>
+      </c>
+      <c r="H165">
+        <v>1.9944947367949251</v>
+      </c>
+      <c r="I165" t="s">
         <v>14</v>
       </c>
-      <c r="E165" t="s">
-        <v>11</v>
-      </c>
-      <c r="F165" t="s">
-        <v>16</v>
-      </c>
-      <c r="G165">
-        <v>1.9907774265703799</v>
-      </c>
-      <c r="H165">
-        <v>1.9927118678339899</v>
-      </c>
-      <c r="I165" t="s">
-        <v>24</v>
-      </c>
       <c r="J165">
-        <v>0.8695521125125153</v>
+        <v>0.87188458260379342</v>
       </c>
       <c r="K165">
-        <v>9.3030414069168845</v>
+        <v>9.3186204179402718</v>
       </c>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166">
-        <v>156</v>
+        <v>73</v>
       </c>
       <c r="B166">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C166">
         <v>1</v>
       </c>
       <c r="D166" t="s">
+        <v>12</v>
+      </c>
+      <c r="E166" t="s">
+        <v>11</v>
+      </c>
+      <c r="F166" t="s">
+        <v>19</v>
+      </c>
+      <c r="G166">
+        <v>1.997986327055022</v>
+      </c>
+      <c r="H166">
+        <v>2.008603170263382</v>
+      </c>
+      <c r="I166" t="s">
         <v>14</v>
       </c>
-      <c r="E166" t="s">
-        <v>11</v>
-      </c>
-      <c r="F166" t="s">
-        <v>16</v>
-      </c>
-      <c r="G166">
-        <v>1.9917362943217649</v>
-      </c>
-      <c r="H166">
-        <v>2.0004618769819151</v>
-      </c>
-      <c r="I166" t="s">
-        <v>24</v>
-      </c>
       <c r="J166">
-        <v>0.87122315310444753</v>
+        <v>0.86820918372773737</v>
       </c>
       <c r="K166">
-        <v>9.313421324408127</v>
+        <v>9.3247986810461416</v>
       </c>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167">
-        <v>160</v>
+        <v>118</v>
       </c>
       <c r="B167">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C167">
         <v>1</v>
       </c>
       <c r="D167" t="s">
+        <v>12</v>
+      </c>
+      <c r="E167" t="s">
+        <v>11</v>
+      </c>
+      <c r="F167" t="s">
+        <v>19</v>
+      </c>
+      <c r="G167">
+        <v>2.0027168036660701</v>
+      </c>
+      <c r="H167">
+        <v>1.9921741807858091</v>
+      </c>
+      <c r="I167" t="s">
         <v>14</v>
       </c>
-      <c r="E167" t="s">
-        <v>11</v>
-      </c>
-      <c r="F167" t="s">
-        <v>16</v>
-      </c>
-      <c r="G167">
-        <v>1.9998439137671971</v>
-      </c>
-      <c r="H167">
-        <v>2.0001518906449141</v>
-      </c>
-      <c r="I167" t="s">
-        <v>24</v>
-      </c>
       <c r="J167">
-        <v>0.87035552006554517</v>
+        <v>0.86858549977057542</v>
       </c>
       <c r="K167">
-        <v>9.3203513244776559</v>
+        <v>9.3134764842224538</v>
       </c>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168">
-        <v>186</v>
+        <v>157</v>
       </c>
       <c r="B168">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C168">
         <v>1</v>
       </c>
       <c r="D168" t="s">
+        <v>12</v>
+      </c>
+      <c r="E168" t="s">
+        <v>11</v>
+      </c>
+      <c r="F168" t="s">
+        <v>19</v>
+      </c>
+      <c r="G168">
+        <v>2.001012825310065</v>
+      </c>
+      <c r="H168">
+        <v>1.993874133313722</v>
+      </c>
+      <c r="I168" t="s">
         <v>14</v>
       </c>
-      <c r="E168" t="s">
-        <v>11</v>
-      </c>
-      <c r="F168" t="s">
-        <v>16</v>
-      </c>
-      <c r="G168">
-        <v>2.008430639591325</v>
-      </c>
-      <c r="H168">
-        <v>1.997052312984815</v>
-      </c>
-      <c r="I168" t="s">
-        <v>24</v>
-      </c>
       <c r="J168">
-        <v>0.87054394501382026</v>
+        <v>0.87191347414971943</v>
       </c>
       <c r="K168">
-        <v>9.3260268975899585</v>
+        <v>9.3168004327735066</v>
       </c>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="B169">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C169">
         <v>1</v>
       </c>
       <c r="D169" t="s">
+        <v>12</v>
+      </c>
+      <c r="E169" t="s">
+        <v>11</v>
+      </c>
+      <c r="F169" t="s">
+        <v>19</v>
+      </c>
+      <c r="G169">
+        <v>2.0026692859486559</v>
+      </c>
+      <c r="H169">
+        <v>2.0098752210808599</v>
+      </c>
+      <c r="I169" t="s">
         <v>14</v>
       </c>
-      <c r="E169" t="s">
-        <v>11</v>
-      </c>
-      <c r="F169" t="s">
-        <v>16</v>
-      </c>
-      <c r="G169">
-        <v>2.0085608896794951</v>
-      </c>
-      <c r="H169">
-        <v>2.0019801610212311</v>
-      </c>
-      <c r="I169" t="s">
-        <v>24</v>
-      </c>
       <c r="J169">
-        <v>0.87190606287493966</v>
+        <v>0.8702311696250884</v>
       </c>
       <c r="K169">
-        <v>9.3324471135756664</v>
+        <v>9.3327756766546042</v>
       </c>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B170">
         <v>1</v>
@@ -6294,30 +6315,30 @@
         <v>12</v>
       </c>
       <c r="E170" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F170" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G170">
-        <v>1.993019339472452</v>
+        <v>1.996746330491785</v>
       </c>
       <c r="H170">
-        <v>2.0064910626890571</v>
+        <v>2.0036656716489221</v>
       </c>
       <c r="I170" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J170">
-        <v>0.86938662710026038</v>
+        <v>0.87131025558625974</v>
       </c>
       <c r="K170">
-        <v>9.3188970292617697</v>
+        <v>9.3217222577269645</v>
       </c>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="B171">
         <v>1</v>
@@ -6329,30 +6350,30 @@
         <v>12</v>
       </c>
       <c r="E171" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F171" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G171">
-        <v>2.0045977628962111</v>
+        <v>2.0076165867773281</v>
       </c>
       <c r="H171">
-        <v>1.9942686042335001</v>
+        <v>1.9959543688376671</v>
       </c>
       <c r="I171" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J171">
-        <v>0.8705801733491052</v>
+        <v>0.86908839079690947</v>
       </c>
       <c r="K171">
-        <v>9.3194465404788147</v>
+        <v>9.3226593464119052</v>
       </c>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="B172">
         <v>2</v>
@@ -6364,30 +6385,30 @@
         <v>12</v>
       </c>
       <c r="E172" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F172" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G172">
-        <v>2.000853131421624</v>
+        <v>2.0048544934380259</v>
       </c>
       <c r="H172">
-        <v>1.995006205717863</v>
+        <v>2.0096152575783859</v>
       </c>
       <c r="I172" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J172">
-        <v>0.87112424108027575</v>
+        <v>0.87050421529704558</v>
       </c>
       <c r="K172">
-        <v>9.3169835782197623</v>
+        <v>9.3349739663134592</v>
       </c>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="B173">
         <v>2</v>
@@ -6399,30 +6420,30 @@
         <v>12</v>
       </c>
       <c r="E173" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F173" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G173">
-        <v>2.0066692528140888</v>
+        <v>1.9996781318719421</v>
       </c>
       <c r="H173">
-        <v>1.993882713796693</v>
+        <v>2.0037095548982089</v>
       </c>
       <c r="I173" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J173">
-        <v>0.86905346645806125</v>
+        <v>0.86918001015384727</v>
       </c>
       <c r="K173">
-        <v>9.3196054330688423</v>
+        <v>9.3225676969239988</v>
       </c>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="B174">
         <v>3</v>
@@ -6434,30 +6455,30 @@
         <v>12</v>
       </c>
       <c r="E174" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F174" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G174">
-        <v>2.006109234137273</v>
+        <v>1.990478431123097</v>
       </c>
       <c r="H174">
-        <v>1.9950137580353089</v>
+        <v>1.990378727235008</v>
       </c>
       <c r="I174" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J174">
-        <v>0.87056411873521133</v>
+        <v>0.86845862003953966</v>
       </c>
       <c r="K174">
-        <v>9.3216871109077939</v>
+        <v>9.299315778397645</v>
       </c>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175">
-        <v>96</v>
+        <v>172</v>
       </c>
       <c r="B175">
         <v>3</v>
@@ -6469,33 +6490,33 @@
         <v>12</v>
       </c>
       <c r="E175" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F175" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G175">
-        <v>1.9966282714349799</v>
+        <v>2.008211923603382</v>
       </c>
       <c r="H175">
-        <v>1.9964403906081809</v>
+        <v>2.0013932624396298</v>
       </c>
       <c r="I175" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J175">
-        <v>0.87133304047053295</v>
+        <v>0.87109995505596938</v>
       </c>
       <c r="K175">
-        <v>9.3144017025136936</v>
+        <v>9.3307051410989814</v>
       </c>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176">
-        <v>114</v>
+        <v>14</v>
       </c>
       <c r="B176">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C176">
         <v>1</v>
@@ -6504,33 +6525,33 @@
         <v>12</v>
       </c>
       <c r="E176" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F176" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G176">
-        <v>2.0084103757457652</v>
+        <v>1.9935022890665901</v>
       </c>
       <c r="H176">
-        <v>2.0016189558111379</v>
+        <v>2.0096160844040711</v>
       </c>
       <c r="I176" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="J176">
-        <v>0.87175476167056676</v>
+        <v>0.87147388553692484</v>
       </c>
       <c r="K176">
-        <v>9.3317840932274692</v>
+        <v>9.324592259007586</v>
       </c>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177">
-        <v>116</v>
+        <v>33</v>
       </c>
       <c r="B177">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C177">
         <v>1</v>
@@ -6539,33 +6560,33 @@
         <v>12</v>
       </c>
       <c r="E177" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F177" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G177">
-        <v>1.9941927555506791</v>
+        <v>1.9981380767795971</v>
       </c>
       <c r="H177">
-        <v>1.9994953119822401</v>
+        <v>1.9956716161415931</v>
       </c>
       <c r="I177" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="J177">
-        <v>0.86887725805888771</v>
+        <v>0.86856508616026751</v>
       </c>
       <c r="K177">
-        <v>9.3125653255918071</v>
+        <v>9.3123747790814555</v>
       </c>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="B178">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C178">
         <v>1</v>
@@ -6574,33 +6595,33 @@
         <v>12</v>
       </c>
       <c r="E178" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F178" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G178">
-        <v>2.0075067961425321</v>
+        <v>1.993763045828554</v>
       </c>
       <c r="H178">
-        <v>2.0078415032542951</v>
+        <v>2.00298434615841</v>
       </c>
       <c r="I178" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="J178">
-        <v>0.87134572734140625</v>
+        <v>0.86801484799675455</v>
       </c>
       <c r="K178">
-        <v>9.3366940267382326</v>
+        <v>9.3147622399837182</v>
       </c>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179">
-        <v>165</v>
+        <v>125</v>
       </c>
       <c r="B179">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C179">
         <v>1</v>
@@ -6609,33 +6630,33 @@
         <v>12</v>
       </c>
       <c r="E179" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F179" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G179">
-        <v>2.0079184631607121</v>
+        <v>2.003727158441285</v>
       </c>
       <c r="H179">
-        <v>2.009010595312144</v>
+        <v>2.009127519007019</v>
       </c>
       <c r="I179" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="J179">
-        <v>0.86906134337938112</v>
+        <v>0.86818435405081429</v>
       </c>
       <c r="K179">
-        <v>9.3359904018522357</v>
+        <v>9.3310390314991203</v>
       </c>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="B180">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C180">
         <v>1</v>
@@ -6644,33 +6665,33 @@
         <v>12</v>
       </c>
       <c r="E180" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F180" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G180">
-        <v>2.0043860186416729</v>
+        <v>1.992641369527175</v>
       </c>
       <c r="H180">
-        <v>2.0022474983915859</v>
+        <v>2.0027402464218671</v>
       </c>
       <c r="I180" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="J180">
-        <v>0.871110943600236</v>
+        <v>0.87044681775380106</v>
       </c>
       <c r="K180">
-        <v>9.3277444606334949</v>
+        <v>9.3158284337028441</v>
       </c>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="B181">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C181">
         <v>1</v>
@@ -6679,30 +6700,30 @@
         <v>12</v>
       </c>
       <c r="E181" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F181" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G181">
-        <v>1.9960384639701561</v>
+        <v>1.9970653186117859</v>
       </c>
       <c r="H181">
-        <v>1.9900329328799919</v>
+        <v>1.9927477556001221</v>
       </c>
       <c r="I181" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="J181">
-        <v>0.87178203853637026</v>
+        <v>0.87131858961252939</v>
       </c>
       <c r="K181">
-        <v>9.3078534353865177</v>
+        <v>9.3111316638244386</v>
       </c>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="B182">
         <v>1</v>
@@ -6711,68 +6732,68 @@
         <v>1</v>
       </c>
       <c r="D182" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E182" t="s">
         <v>11</v>
       </c>
       <c r="F182" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G182">
-        <v>2.008087580387401</v>
+        <v>2.00713910008453</v>
       </c>
       <c r="H182">
-        <v>2.0089073252519332</v>
+        <v>1.9940876057088439</v>
       </c>
       <c r="I182" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="J182">
-        <v>0.87117654880584794</v>
+        <v>0.86843697909974926</v>
       </c>
       <c r="K182">
-        <v>9.338171454445181</v>
+        <v>9.3196636848931238</v>
       </c>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183">
+        <v>55</v>
+      </c>
+      <c r="B183">
+        <v>1</v>
+      </c>
+      <c r="C183">
+        <v>1</v>
+      </c>
+      <c r="D183" t="s">
+        <v>15</v>
+      </c>
+      <c r="E183" t="s">
+        <v>11</v>
+      </c>
+      <c r="F183" t="s">
+        <v>19</v>
+      </c>
+      <c r="G183">
+        <v>2.0079710536082689</v>
+      </c>
+      <c r="H183">
+        <v>1.9969653944978361</v>
+      </c>
+      <c r="I183" t="s">
         <v>31</v>
       </c>
-      <c r="B183">
-        <v>1</v>
-      </c>
-      <c r="C183">
-        <v>1</v>
-      </c>
-      <c r="D183" t="s">
-        <v>12</v>
-      </c>
-      <c r="E183" t="s">
-        <v>11</v>
-      </c>
-      <c r="F183" t="s">
-        <v>16</v>
-      </c>
-      <c r="G183">
-        <v>2.0059429892856948</v>
-      </c>
-      <c r="H183">
-        <v>1.996606012649363</v>
-      </c>
-      <c r="I183" t="s">
-        <v>19</v>
-      </c>
       <c r="J183">
-        <v>0.87155743173658917</v>
+        <v>0.87032931375418554</v>
       </c>
       <c r="K183">
-        <v>9.3241064336716466</v>
+        <v>9.3252657618602903</v>
       </c>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184">
-        <v>53</v>
+        <v>97</v>
       </c>
       <c r="B184">
         <v>2</v>
@@ -6781,33 +6802,33 @@
         <v>1</v>
       </c>
       <c r="D184" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E184" t="s">
         <v>11</v>
       </c>
       <c r="F184" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G184">
-        <v>2.0081312711631858</v>
+        <v>2.0038920596531229</v>
       </c>
       <c r="H184">
-        <v>1.993320356381538</v>
+        <v>1.9915608217389189</v>
       </c>
       <c r="I184" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="J184">
-        <v>0.86953826049976635</v>
+        <v>0.86862918485565566</v>
       </c>
       <c r="K184">
-        <v>9.3209898880444904</v>
+        <v>9.314082066247698</v>
       </c>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185">
-        <v>69</v>
+        <v>132</v>
       </c>
       <c r="B185">
         <v>2</v>
@@ -6816,33 +6837,33 @@
         <v>1</v>
       </c>
       <c r="D185" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E185" t="s">
         <v>11</v>
       </c>
       <c r="F185" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G185">
-        <v>1.996322009276404</v>
+        <v>2.0081695346625139</v>
       </c>
       <c r="H185">
-        <v>2.0054866880155648</v>
+        <v>2.0085772586797281</v>
       </c>
       <c r="I185" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="J185">
-        <v>0.87060443044929048</v>
+        <v>0.86917206291243321</v>
       </c>
       <c r="K185">
-        <v>9.3224131277412603</v>
+        <v>9.3359188562546755</v>
       </c>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186">
-        <v>82</v>
+        <v>178</v>
       </c>
       <c r="B186">
         <v>3</v>
@@ -6851,33 +6872,33 @@
         <v>1</v>
       </c>
       <c r="D186" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E186" t="s">
         <v>11</v>
       </c>
       <c r="F186" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G186">
-        <v>2.0009240140677411</v>
+        <v>1.990841960597769</v>
       </c>
       <c r="H186">
-        <v>2.0056065491394062</v>
+        <v>1.9908865216452349</v>
       </c>
       <c r="I186" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="J186">
-        <v>0.86824256839204939</v>
+        <v>0.87108007605385873</v>
       </c>
       <c r="K186">
-        <v>9.3247731315991942</v>
+        <v>9.3028085582968636</v>
       </c>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187">
-        <v>100</v>
+        <v>185</v>
       </c>
       <c r="B187">
         <v>3</v>
@@ -6886,243 +6907,243 @@
         <v>1</v>
       </c>
       <c r="D187" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E187" t="s">
         <v>11</v>
       </c>
       <c r="F187" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G187">
-        <v>1.999472141730861</v>
+        <v>1.9901038951821139</v>
       </c>
       <c r="H187">
-        <v>1.9996060460784559</v>
+        <v>1.993295183967269</v>
       </c>
       <c r="I187" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="J187">
-        <v>0.87190346596466317</v>
+        <v>0.86986745716987135</v>
       </c>
       <c r="K187">
-        <v>9.3209816537739805</v>
+        <v>9.3032665363192528</v>
       </c>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188">
-        <v>124</v>
+        <v>35</v>
       </c>
       <c r="B188">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C188">
         <v>1</v>
       </c>
       <c r="D188" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E188" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F188" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G188">
-        <v>1.9911223365891431</v>
+        <v>2.0065045779661812</v>
       </c>
       <c r="H188">
-        <v>2.0096876902561478</v>
+        <v>1.995978686235101</v>
       </c>
       <c r="I188" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="J188">
-        <v>0.86986070998902265</v>
+        <v>0.86979364569426065</v>
       </c>
       <c r="K188">
-        <v>9.3206707368343142</v>
+        <v>9.3222769098955407</v>
       </c>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189">
-        <v>135</v>
+        <v>64</v>
       </c>
       <c r="B189">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C189">
         <v>1</v>
       </c>
       <c r="D189" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E189" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F189" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G189">
-        <v>1.991114458489486</v>
+        <v>2.006760556394704</v>
       </c>
       <c r="H189">
-        <v>2.0011638880643332</v>
+        <v>1.991272389768078</v>
       </c>
       <c r="I189" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="J189">
-        <v>0.86863423765299097</v>
+        <v>0.8680833572365021</v>
       </c>
       <c r="K189">
-        <v>9.3109125842068092</v>
+        <v>9.3161163033992835</v>
       </c>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190">
-        <v>148</v>
+        <v>93</v>
       </c>
       <c r="B190">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C190">
         <v>1</v>
       </c>
       <c r="D190" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E190" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F190" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G190">
-        <v>1.995354282977132</v>
+        <v>2.0058312734499579</v>
       </c>
       <c r="H190">
-        <v>2.000131567444023</v>
+        <v>1.992322635498305</v>
       </c>
       <c r="I190" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="J190">
-        <v>0.87054762030070865</v>
+        <v>0.8693866823437455</v>
       </c>
       <c r="K190">
-        <v>9.3160334707218642</v>
+        <v>9.3175405912920084</v>
       </c>
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191">
-        <v>150</v>
+        <v>116</v>
       </c>
       <c r="B191">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C191">
         <v>1</v>
       </c>
       <c r="D191" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E191" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F191" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G191">
-        <v>1.9967694192252561</v>
+        <v>2.0075486670343579</v>
       </c>
       <c r="H191">
-        <v>2.003621429917025</v>
+        <v>1.99656416283105</v>
       </c>
       <c r="I191" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="J191">
-        <v>0.87092815482282637</v>
+        <v>0.87138008481917539</v>
       </c>
       <c r="K191">
-        <v>9.3213190039651064</v>
+        <v>9.3254929146845846</v>
       </c>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192">
-        <v>189</v>
+        <v>155</v>
       </c>
       <c r="B192">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C192">
         <v>1</v>
       </c>
       <c r="D192" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E192" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F192" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G192">
-        <v>1.9990969090852591</v>
+        <v>2.0012000752707921</v>
       </c>
       <c r="H192">
-        <v>2.00408782707171</v>
+        <v>1.996506182435412</v>
       </c>
       <c r="I192" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="J192">
-        <v>0.87120695336083553</v>
+        <v>0.87067399816139934</v>
       </c>
       <c r="K192">
-        <v>9.3243916895178067</v>
+        <v>9.3183802558676021</v>
       </c>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193">
-        <v>196</v>
+        <v>162</v>
       </c>
       <c r="B193">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C193">
         <v>1</v>
       </c>
       <c r="D193" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E193" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F193" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G193">
-        <v>1.9975010478346571</v>
+        <v>1.9900271212719021</v>
       </c>
       <c r="H193">
-        <v>2.0008934388000168</v>
+        <v>2.0092014666805551</v>
       </c>
       <c r="I193" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="J193">
-        <v>0.86825727586435109</v>
+        <v>0.87191128709895971</v>
       </c>
       <c r="K193">
-        <v>9.3166517624990242</v>
+        <v>9.3211398750514167</v>
       </c>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B194">
         <v>1</v>
@@ -7131,33 +7152,33 @@
         <v>1</v>
       </c>
       <c r="D194" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E194" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F194" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G194">
-        <v>1.995705726061201</v>
+        <v>1.998899742480192</v>
       </c>
       <c r="H194">
-        <v>2.0014454538309652</v>
+        <v>1.9988648721427451</v>
       </c>
       <c r="I194" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="J194">
-        <v>0.8695378696626993</v>
+        <v>0.87058964040495967</v>
       </c>
       <c r="K194">
-        <v>9.3166890495548635</v>
+        <v>9.3183542550278968</v>
       </c>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B195">
         <v>1</v>
@@ -7166,33 +7187,33 @@
         <v>1</v>
       </c>
       <c r="D195" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E195" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F195" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G195">
-        <v>2.006538708707192</v>
+        <v>1.999698056510363</v>
       </c>
       <c r="H195">
-        <v>1.9946188377617711</v>
+        <v>1.997094084405683</v>
       </c>
       <c r="I195" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="J195">
-        <v>0.87170965896125086</v>
+        <v>0.87188492094287451</v>
       </c>
       <c r="K195">
-        <v>9.3228672054302137</v>
+        <v>9.3186770618589208</v>
       </c>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196">
-        <v>37</v>
+        <v>136</v>
       </c>
       <c r="B196">
         <v>2</v>
@@ -7201,33 +7222,33 @@
         <v>1</v>
       </c>
       <c r="D196" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E196" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F196" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G196">
-        <v>1.9984744947949711</v>
+        <v>2.0054213148475561</v>
       </c>
       <c r="H196">
-        <v>2.0012006702892799</v>
+        <v>1.9982595199177711</v>
       </c>
       <c r="I196" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="J196">
-        <v>0.87032607076945234</v>
+        <v>0.86967800951091501</v>
       </c>
       <c r="K196">
-        <v>9.3200012358537041</v>
+        <v>9.3233588442762425</v>
       </c>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197">
-        <v>62</v>
+        <v>139</v>
       </c>
       <c r="B197">
         <v>2</v>
@@ -7236,33 +7257,33 @@
         <v>1</v>
       </c>
       <c r="D197" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E197" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F197" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G197">
-        <v>2.0030837625543372</v>
+        <v>1.993033038146248</v>
       </c>
       <c r="H197">
-        <v>1.997404598122051</v>
+        <v>2.0092003497265321</v>
       </c>
       <c r="I197" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="J197">
-        <v>0.86883056789572077</v>
+        <v>0.86817460367277421</v>
       </c>
       <c r="K197">
-        <v>9.319318928572109</v>
+        <v>9.3204079915455544</v>
       </c>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198">
-        <v>104</v>
+        <v>147</v>
       </c>
       <c r="B198">
         <v>3</v>
@@ -7271,33 +7292,33 @@
         <v>1</v>
       </c>
       <c r="D198" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E198" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F198" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G198">
-        <v>1.99999705230633</v>
+        <v>2.0014580747348099</v>
       </c>
       <c r="H198">
-        <v>2.0099466758955149</v>
+        <v>1.9979685869070529</v>
       </c>
       <c r="I198" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="J198">
-        <v>0.86869353313024011</v>
+        <v>0.86910707548937804</v>
       </c>
       <c r="K198">
-        <v>9.3286372613320854</v>
+        <v>9.31853373713124</v>
       </c>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199">
-        <v>108</v>
+        <v>168</v>
       </c>
       <c r="B199">
         <v>3</v>
@@ -7306,243 +7327,243 @@
         <v>1</v>
       </c>
       <c r="D199" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E199" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F199" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G199">
-        <v>2.009585674385244</v>
+        <v>2.008155008516316</v>
       </c>
       <c r="H199">
-        <v>2.0022108186319572</v>
+        <v>1.9993619005055501</v>
       </c>
       <c r="I199" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="J199">
-        <v>0.87148994507087774</v>
+        <v>0.86950773029453809</v>
       </c>
       <c r="K199">
-        <v>9.3332864380880771</v>
+        <v>9.327024639316404</v>
       </c>
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200">
-        <v>131</v>
+        <v>16</v>
       </c>
       <c r="B200">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C200">
         <v>1</v>
       </c>
       <c r="D200" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E200" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F200" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G200">
-        <v>1.999744984437859</v>
+        <v>1.992450267193365</v>
       </c>
       <c r="H200">
-        <v>2.000122449374766</v>
+        <v>1.994325514421079</v>
       </c>
       <c r="I200" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="J200">
-        <v>0.87020355485724554</v>
+        <v>0.86827964199095475</v>
       </c>
       <c r="K200">
-        <v>9.3200709886698725</v>
+        <v>9.3050554236053973</v>
       </c>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201">
-        <v>133</v>
+        <v>39</v>
       </c>
       <c r="B201">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C201">
         <v>1</v>
       </c>
       <c r="D201" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E201" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F201" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G201">
-        <v>2.0079275050855339</v>
+        <v>1.9939790239186641</v>
       </c>
       <c r="H201">
-        <v>2.0057709609714132</v>
+        <v>2.0011856629632749</v>
       </c>
       <c r="I201" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="J201">
-        <v>0.87075264249655715</v>
+        <v>0.87071998145211871</v>
       </c>
       <c r="K201">
-        <v>9.3344511085535036</v>
+        <v>9.315884668334057</v>
       </c>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202">
-        <v>169</v>
+        <v>80</v>
       </c>
       <c r="B202">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C202">
         <v>1</v>
       </c>
       <c r="D202" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E202" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F202" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G202">
-        <v>1.999864120106843</v>
+        <v>2.0046487358968301</v>
       </c>
       <c r="H202">
-        <v>1.994847931561808</v>
+        <v>2.004277901362058</v>
       </c>
       <c r="I202" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="J202">
-        <v>0.86837555732689353</v>
+        <v>0.8681264241656258</v>
       </c>
       <c r="K202">
-        <v>9.3130876089955432</v>
+        <v>9.3270530614245128</v>
       </c>
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203">
-        <v>177</v>
+        <v>134</v>
       </c>
       <c r="B203">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C203">
         <v>1</v>
       </c>
       <c r="D203" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E203" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F203" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G203">
-        <v>2.0080547950616991</v>
+        <v>1.999029470785024</v>
       </c>
       <c r="H203">
-        <v>1.9969256381385909</v>
+        <v>1.9954017751448341</v>
       </c>
       <c r="I203" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="J203">
-        <v>0.8705732911600389</v>
+        <v>0.86999548910380431</v>
       </c>
       <c r="K203">
-        <v>9.3255537243603293</v>
+        <v>9.3144267350336616</v>
       </c>
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204">
-        <v>194</v>
+        <v>153</v>
       </c>
       <c r="B204">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C204">
         <v>1</v>
       </c>
       <c r="D204" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E204" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F204" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G204">
-        <v>2.0050969598190309</v>
+        <v>1.994767622451374</v>
       </c>
       <c r="H204">
-        <v>1.9960071072190539</v>
+        <v>2.0070706471021982</v>
       </c>
       <c r="I204" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="J204">
-        <v>0.87092556804006571</v>
+        <v>0.86822497890201134</v>
       </c>
       <c r="K204">
-        <v>9.3220296350781506</v>
+        <v>9.3200632484555843</v>
       </c>
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205">
-        <v>211</v>
+        <v>180</v>
       </c>
       <c r="B205">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C205">
         <v>1</v>
       </c>
       <c r="D205" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E205" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F205" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G205">
-        <v>1.998598949136098</v>
+        <v>2.0014725414776482</v>
       </c>
       <c r="H205">
-        <v>1.9951172256580729</v>
+        <v>2.0053995635233139</v>
       </c>
       <c r="I205" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="J205">
-        <v>0.86969697298202786</v>
+        <v>0.86832339129217395</v>
       </c>
       <c r="K205">
-        <v>9.313413147776199</v>
+        <v>9.3251954962931372</v>
       </c>
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B206">
         <v>1</v>
@@ -7551,33 +7572,33 @@
         <v>1</v>
       </c>
       <c r="D206" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E206" t="s">
         <v>12</v>
       </c>
       <c r="F206" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G206">
-        <v>1.9927267726584741</v>
+        <v>1.990094778385896</v>
       </c>
       <c r="H206">
-        <v>2.0028369413500848</v>
+        <v>1.9952432589967519</v>
       </c>
       <c r="I206" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="J206">
-        <v>0.87122970763168073</v>
+        <v>0.87139148467022165</v>
       </c>
       <c r="K206">
-        <v>9.3167934216402397</v>
+        <v>9.3067295220528674</v>
       </c>
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="B207">
         <v>1</v>
@@ -7586,33 +7607,33 @@
         <v>1</v>
       </c>
       <c r="D207" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E207" t="s">
         <v>12</v>
       </c>
       <c r="F207" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G207">
-        <v>1.9986484775953841</v>
+        <v>1.994293104367165</v>
       </c>
       <c r="H207">
-        <v>1.999356859244191</v>
+        <v>2.005592395832505</v>
       </c>
       <c r="I207" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="J207">
-        <v>0.87144850766089965</v>
+        <v>0.86954637755725384</v>
       </c>
       <c r="K207">
-        <v>9.3194538445004742</v>
+        <v>9.3194318777569247</v>
       </c>
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="B208">
         <v>2</v>
@@ -7621,33 +7642,33 @@
         <v>1</v>
       </c>
       <c r="D208" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E208" t="s">
         <v>12</v>
       </c>
       <c r="F208" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G208">
-        <v>2.0081298294371051</v>
+        <v>2.004615370208116</v>
       </c>
       <c r="H208">
-        <v>1.9940776913595719</v>
+        <v>2.0034494376810259</v>
       </c>
       <c r="I208" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="J208">
-        <v>0.87040199951850428</v>
+        <v>0.86812141821478395</v>
       </c>
       <c r="K208">
-        <v>9.3226095203151811</v>
+        <v>9.3261862261039248</v>
       </c>
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209">
-        <v>57</v>
+        <v>107</v>
       </c>
       <c r="B209">
         <v>2</v>
@@ -7656,33 +7677,33 @@
         <v>1</v>
       </c>
       <c r="D209" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E209" t="s">
         <v>12</v>
       </c>
       <c r="F209" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G209">
-        <v>2.009963919080517</v>
+        <v>2.0083324315956572</v>
       </c>
       <c r="H209">
-        <v>1.996117083979946</v>
+        <v>2.004985728119014</v>
       </c>
       <c r="I209" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="J209">
-        <v>0.86885587105877427</v>
+        <v>0.86866779521945336</v>
       </c>
       <c r="K209">
-        <v>9.3249368741192349</v>
+        <v>9.3319859549341242</v>
       </c>
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210">
-        <v>76</v>
+        <v>159</v>
       </c>
       <c r="B210">
         <v>3</v>
@@ -7691,33 +7712,33 @@
         <v>1</v>
       </c>
       <c r="D210" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E210" t="s">
         <v>12</v>
       </c>
       <c r="F210" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G210">
-        <v>1.9925809476143781</v>
+        <v>1.996203022171527</v>
       </c>
       <c r="H210">
-        <v>2.002106224222</v>
+        <v>1.9950734061264981</v>
       </c>
       <c r="I210" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="J210">
-        <v>0.86952321386083387</v>
+        <v>0.87096837914692704</v>
       </c>
       <c r="K210">
-        <v>9.314210385697212</v>
+        <v>9.3122448074449515</v>
       </c>
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211">
-        <v>86</v>
+        <v>207</v>
       </c>
       <c r="B211">
         <v>3</v>
@@ -7726,238 +7747,238 @@
         <v>1</v>
       </c>
       <c r="D211" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E211" t="s">
         <v>12</v>
       </c>
       <c r="F211" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G211">
-        <v>2.006455569804988</v>
+        <v>2.0021205683260579</v>
       </c>
       <c r="H211">
-        <v>2.008052164278145</v>
+        <v>2.0056897031041099</v>
       </c>
       <c r="I211" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="J211">
-        <v>0.8705654995501555</v>
+        <v>0.8695778529714806</v>
       </c>
       <c r="K211">
-        <v>9.3350732336332864</v>
+        <v>9.3273881244016508</v>
       </c>
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212">
-        <v>127</v>
+        <v>4</v>
       </c>
       <c r="B212">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C212">
         <v>1</v>
       </c>
       <c r="D212" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E212" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F212" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G212">
-        <v>1.998256571390594</v>
+        <v>2.0008596130572438</v>
       </c>
       <c r="H212">
-        <v>1.99371389253524</v>
+        <v>2.009738318832198</v>
       </c>
       <c r="I212" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J212">
-        <v>0.87066633060215259</v>
+        <v>0.8717721878982545</v>
       </c>
       <c r="K212">
-        <v>9.312636794527986</v>
+        <v>9.3323701197876971</v>
       </c>
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213">
-        <v>129</v>
+        <v>6</v>
       </c>
       <c r="B213">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C213">
         <v>1</v>
       </c>
       <c r="D213" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E213" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F213" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G213">
-        <v>1.994115844290862</v>
+        <v>2.0047329005476708</v>
       </c>
       <c r="H213">
-        <v>2.0055433114705732</v>
+        <v>1.992014701822169</v>
       </c>
       <c r="I213" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J213">
-        <v>0.87115145220083079</v>
+        <v>0.87010520797490143</v>
       </c>
       <c r="K213">
-        <v>9.3208106079622652</v>
+        <v>9.3168528103447414</v>
       </c>
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214">
-        <v>153</v>
+        <v>91</v>
       </c>
       <c r="B214">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C214">
         <v>1</v>
       </c>
       <c r="D214" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E214" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F214" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G214">
-        <v>1.991559742656507</v>
+        <v>1.995630689462939</v>
       </c>
       <c r="H214">
-        <v>2.001593723671804</v>
+        <v>2.0042611304809208</v>
       </c>
       <c r="I214" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J214">
-        <v>0.86832583087286086</v>
+        <v>0.87073566108036016</v>
       </c>
       <c r="K214">
-        <v>9.3114792972011724</v>
+        <v>9.3206274810242213</v>
       </c>
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215">
-        <v>180</v>
+        <v>141</v>
       </c>
       <c r="B215">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C215">
         <v>1</v>
       </c>
       <c r="D215" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E215" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F215" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G215">
-        <v>1.9934738146007951</v>
+        <v>2.004960004362188</v>
       </c>
       <c r="H215">
-        <v>2.0058823043171188</v>
+        <v>2.0024748904674019</v>
       </c>
       <c r="I215" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J215">
-        <v>0.86802937223816379</v>
+        <v>0.87031794869280721</v>
       </c>
       <c r="K215">
-        <v>9.3173854911560774</v>
+        <v>9.3277528435223989</v>
       </c>
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="B216">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C216">
         <v>1</v>
       </c>
       <c r="D216" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E216" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F216" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G216">
-        <v>2.0076639741163218</v>
+        <v>1.99644065293678</v>
       </c>
       <c r="H216">
-        <v>2.003476940935907</v>
+        <v>1.990081905616973</v>
       </c>
       <c r="I216" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J216">
-        <v>0.8689593853512585</v>
+        <v>0.8686051870878676</v>
       </c>
       <c r="K216">
-        <v>9.3301003004034886</v>
+        <v>9.3051277456416202</v>
       </c>
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B217">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C217">
         <v>1</v>
       </c>
       <c r="D217" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E217" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F217" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G217">
-        <v>2.0065292066567202</v>
+        <v>2.0065132610068779</v>
       </c>
       <c r="H217">
-        <v>1.9921985234464441</v>
+        <v>1.9928830669423969</v>
       </c>
       <c r="I217" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J217">
-        <v>0.86824779007927977</v>
+        <v>0.87042922093840613</v>
       </c>
       <c r="K217">
-        <v>9.3169755201824458</v>
+        <v>9.3198255488876818</v>
       </c>
     </row>
   </sheetData>
